--- a/uploads/proba.xlsx
+++ b/uploads/proba.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas Sreco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F1D1E-8F8F-405B-8D21-87CAA23CC271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
   </bookViews>
   <sheets>
     <sheet name="ШПИ" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">СВИ!$A$1:$U$637</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ШПИ!$B$1:$I$91</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="1434">
   <si>
     <t>Број индекса</t>
   </si>
@@ -4341,12 +4340,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5087,32 +5086,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -5166,7 +5165,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -5191,7 +5190,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -5216,7 +5215,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -5241,7 +5240,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5266,7 +5265,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -5291,7 +5290,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -5316,7 +5315,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -5341,7 +5340,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -5366,7 +5365,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -5391,7 +5390,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -5416,7 +5415,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -5466,7 +5465,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -5491,7 +5490,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -5516,7 +5515,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -5541,7 +5540,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
@@ -5566,7 +5565,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
@@ -5591,7 +5590,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>53</v>
       </c>
@@ -5616,7 +5615,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>55</v>
       </c>
@@ -5641,7 +5640,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
@@ -5666,7 +5665,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
@@ -5716,7 +5715,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -5741,7 +5740,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -5766,7 +5765,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -5791,7 +5790,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5816,7 +5815,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5841,7 +5840,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>73</v>
       </c>
@@ -5866,7 +5865,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="13.2">
       <c r="A31" s="7" t="s">
         <v>75</v>
       </c>
@@ -5891,7 +5890,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="13.2">
       <c r="A32" s="7" t="s">
         <v>77</v>
       </c>
@@ -5916,7 +5915,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="13.2">
       <c r="A33" s="7" t="s">
         <v>79</v>
       </c>
@@ -5941,7 +5940,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="13.2">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -5966,7 +5965,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="13.2">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -5991,7 +5990,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="13.2">
       <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
@@ -6016,7 +6015,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="13.2">
       <c r="A37" s="7" t="s">
         <v>86</v>
       </c>
@@ -6041,7 +6040,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="13.2">
       <c r="A38" s="7" t="s">
         <v>88</v>
       </c>
@@ -6066,7 +6065,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="13.2">
       <c r="A39" s="7" t="s">
         <v>90</v>
       </c>
@@ -6091,7 +6090,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="13.2">
       <c r="A40" s="7" t="s">
         <v>92</v>
       </c>
@@ -6116,7 +6115,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="13.2">
       <c r="A41" s="7" t="s">
         <v>94</v>
       </c>
@@ -6141,7 +6140,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="13.2">
       <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
@@ -6166,7 +6165,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="13.2">
       <c r="A43" s="7" t="s">
         <v>98</v>
       </c>
@@ -6191,7 +6190,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="13.2">
       <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
@@ -6216,7 +6215,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="13.2">
       <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
@@ -6241,7 +6240,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="13.2">
       <c r="A46" s="7" t="s">
         <v>104</v>
       </c>
@@ -6266,7 +6265,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="13.2">
       <c r="A47" s="7" t="s">
         <v>106</v>
       </c>
@@ -6291,7 +6290,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="13.2">
       <c r="A48" s="7" t="s">
         <v>108</v>
       </c>
@@ -6316,7 +6315,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="13.2">
       <c r="A49" s="7" t="s">
         <v>110</v>
       </c>
@@ -6341,7 +6340,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="13.2">
       <c r="A50" s="7" t="s">
         <v>112</v>
       </c>
@@ -6366,7 +6365,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="13.2">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -6391,7 +6390,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="13.2">
       <c r="A52" s="7" t="s">
         <v>115</v>
       </c>
@@ -6416,7 +6415,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="13.2">
       <c r="A53" s="7" t="s">
         <v>117</v>
       </c>
@@ -6441,7 +6440,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="13.2">
       <c r="A54" s="7" t="s">
         <v>119</v>
       </c>
@@ -6466,7 +6465,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="13.2">
       <c r="A55" s="7" t="s">
         <v>121</v>
       </c>
@@ -6491,7 +6490,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="13.2">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
@@ -6516,7 +6515,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="13.2">
       <c r="A57" s="7" t="s">
         <v>125</v>
       </c>
@@ -6541,7 +6540,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="13.2">
       <c r="A58" s="7" t="s">
         <v>127</v>
       </c>
@@ -6566,7 +6565,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="13.2">
       <c r="A59" s="7" t="s">
         <v>129</v>
       </c>
@@ -6591,7 +6590,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="13.2">
       <c r="A60" s="7" t="s">
         <v>131</v>
       </c>
@@ -6616,7 +6615,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="13.2">
       <c r="A61" s="7" t="s">
         <v>133</v>
       </c>
@@ -6641,7 +6640,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="13.2">
       <c r="A62" s="7" t="s">
         <v>135</v>
       </c>
@@ -6666,7 +6665,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="13.2">
       <c r="A63" s="7" t="s">
         <v>137</v>
       </c>
@@ -6691,7 +6690,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="13.2">
       <c r="A64" s="7" t="s">
         <v>139</v>
       </c>
@@ -6716,7 +6715,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="13.2">
       <c r="A65" s="7" t="s">
         <v>141</v>
       </c>
@@ -6741,7 +6740,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="13.2">
       <c r="A66" s="7" t="s">
         <v>143</v>
       </c>
@@ -6766,7 +6765,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="13.2">
       <c r="A67" s="7" t="s">
         <v>145</v>
       </c>
@@ -6791,7 +6790,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="13.2">
       <c r="A68" s="7" t="s">
         <v>147</v>
       </c>
@@ -6816,7 +6815,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="13.2">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -6841,7 +6840,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="13.2">
       <c r="A70" s="7" t="s">
         <v>151</v>
       </c>
@@ -6866,7 +6865,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="13.2">
       <c r="A71" s="7" t="s">
         <v>153</v>
       </c>
@@ -6891,7 +6890,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="13.2">
       <c r="A72" s="7" t="s">
         <v>155</v>
       </c>
@@ -6916,7 +6915,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="13.2">
       <c r="A73" s="7" t="s">
         <v>157</v>
       </c>
@@ -6941,7 +6940,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="13.2">
       <c r="A74" s="7" t="s">
         <v>159</v>
       </c>
@@ -6966,7 +6965,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="13.2">
       <c r="A75" s="7" t="s">
         <v>161</v>
       </c>
@@ -6991,7 +6990,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="13.2">
       <c r="A76" s="7" t="s">
         <v>163</v>
       </c>
@@ -7016,7 +7015,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="13.2">
       <c r="A77" s="7" t="s">
         <v>165</v>
       </c>
@@ -7041,7 +7040,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="13.2">
       <c r="A78" s="7" t="s">
         <v>167</v>
       </c>
@@ -7066,7 +7065,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="13.2">
       <c r="A79" s="7" t="s">
         <v>169</v>
       </c>
@@ -7091,7 +7090,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13.2">
       <c r="A80" s="7" t="s">
         <v>171</v>
       </c>
@@ -7116,7 +7115,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13.2">
       <c r="A81" s="7" t="s">
         <v>173</v>
       </c>
@@ -7141,7 +7140,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="13.2">
       <c r="A82" s="7" t="s">
         <v>175</v>
       </c>
@@ -7166,7 +7165,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="13.2">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -7191,7 +7190,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="13.2">
       <c r="A84" s="7" t="s">
         <v>179</v>
       </c>
@@ -7216,7 +7215,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="13.2">
       <c r="A85" s="7" t="s">
         <v>181</v>
       </c>
@@ -7241,7 +7240,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="13.2">
       <c r="A86" s="7" t="s">
         <v>183</v>
       </c>
@@ -7266,7 +7265,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="13.2">
       <c r="A87" s="7" t="s">
         <v>185</v>
       </c>
@@ -7291,7 +7290,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="13.2">
       <c r="A88" s="7" t="s">
         <v>187</v>
       </c>
@@ -7316,7 +7315,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="13.2">
       <c r="A89" s="7" t="s">
         <v>189</v>
       </c>
@@ -7341,7 +7340,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="13.2">
       <c r="A90" s="7" t="s">
         <v>191</v>
       </c>
@@ -7366,7 +7365,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="13.2">
       <c r="A91" s="7" t="s">
         <v>193</v>
       </c>
@@ -7391,8 +7390,123 @@
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
     </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E92" s="11">
+        <v>44730</v>
+      </c>
+      <c r="F92" s="60" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G92" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E93" s="11">
+        <v>44730</v>
+      </c>
+      <c r="F93" s="60" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G93" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A94" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E94" s="11">
+        <v>44730</v>
+      </c>
+      <c r="F94" s="60" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G94" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E95" s="11">
+        <v>44730</v>
+      </c>
+      <c r="F95" s="60" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G95" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D96" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E96" s="11">
+        <v>44730</v>
+      </c>
+      <c r="F96" s="60" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:I91"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7401,7 +7515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7412,28 +7526,28 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="14" width="4.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" customWidth="1"/>
+    <col min="4" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
     <col min="19" max="19" width="2" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" customWidth="1"/>
-    <col min="21" max="21" width="46.85546875" customWidth="1"/>
+    <col min="20" max="20" width="3.109375" customWidth="1"/>
+    <col min="21" max="21" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7494,7 +7608,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>390</v>
       </c>
@@ -7546,7 +7660,7 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>392</v>
       </c>
@@ -7598,7 +7712,7 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>399</v>
       </c>
@@ -7650,7 +7764,7 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>401</v>
       </c>
@@ -7702,7 +7816,7 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>403</v>
       </c>
@@ -7754,7 +7868,7 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>405</v>
       </c>
@@ -7806,7 +7920,7 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>407</v>
       </c>
@@ -7858,7 +7972,7 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>409</v>
       </c>
@@ -7910,7 +8024,7 @@
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>411</v>
       </c>
@@ -7962,7 +8076,7 @@
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>413</v>
       </c>
@@ -8014,7 +8128,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>420</v>
       </c>
@@ -8066,7 +8180,7 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>422</v>
       </c>
@@ -8118,7 +8232,7 @@
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>424</v>
       </c>
@@ -8172,7 +8286,7 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>426</v>
       </c>
@@ -8226,7 +8340,7 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>428</v>
       </c>
@@ -8278,7 +8392,7 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>434</v>
       </c>
@@ -8330,7 +8444,7 @@
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>435</v>
       </c>
@@ -8382,7 +8496,7 @@
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>437</v>
       </c>
@@ -8434,7 +8548,7 @@
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>439</v>
       </c>
@@ -8486,7 +8600,7 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>441</v>
       </c>
@@ -8538,7 +8652,7 @@
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>443</v>
       </c>
@@ -8590,7 +8704,7 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>446</v>
       </c>
@@ -8642,7 +8756,7 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>448</v>
       </c>
@@ -8694,7 +8808,7 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>449</v>
       </c>
@@ -8746,7 +8860,7 @@
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>451</v>
       </c>
@@ -8798,7 +8912,7 @@
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>453</v>
       </c>
@@ -8850,7 +8964,7 @@
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>455</v>
       </c>
@@ -8902,7 +9016,7 @@
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1">
       <c r="A29" s="31" t="s">
         <v>457</v>
       </c>
@@ -8954,7 +9068,7 @@
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>459</v>
       </c>
@@ -9006,7 +9120,7 @@
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>463</v>
       </c>
@@ -9058,7 +9172,7 @@
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="31" t="s">
         <v>465</v>
       </c>
@@ -9110,7 +9224,7 @@
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="31" t="s">
         <v>467</v>
       </c>
@@ -9162,7 +9276,7 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="31" t="s">
         <v>469</v>
       </c>
@@ -9214,7 +9328,7 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1">
       <c r="A35" s="31" t="s">
         <v>471</v>
       </c>
@@ -9266,7 +9380,7 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1">
       <c r="A36" s="24" t="s">
         <v>473</v>
       </c>
@@ -9318,7 +9432,7 @@
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1">
       <c r="A37" s="31" t="s">
         <v>475</v>
       </c>
@@ -9370,7 +9484,7 @@
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="A38" s="31" t="s">
         <v>477</v>
       </c>
@@ -9422,7 +9536,7 @@
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
       <c r="A39" s="31" t="s">
         <v>483</v>
       </c>
@@ -9474,7 +9588,7 @@
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
     </row>
-    <row r="40" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" ht="13.8">
       <c r="A40" s="31" t="s">
         <v>485</v>
       </c>
@@ -9526,7 +9640,7 @@
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" ht="13.8">
       <c r="A41" s="31" t="s">
         <v>487</v>
       </c>
@@ -9578,7 +9692,7 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
     </row>
-    <row r="42" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" ht="13.8">
       <c r="A42" s="31" t="s">
         <v>489</v>
       </c>
@@ -9630,7 +9744,7 @@
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
     </row>
-    <row r="43" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" ht="13.8">
       <c r="A43" s="31" t="s">
         <v>491</v>
       </c>
@@ -9682,7 +9796,7 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
     </row>
-    <row r="44" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" ht="13.8">
       <c r="A44" s="31" t="s">
         <v>493</v>
       </c>
@@ -9734,7 +9848,7 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
     </row>
-    <row r="45" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" ht="13.8">
       <c r="A45" s="31" t="s">
         <v>495</v>
       </c>
@@ -9786,7 +9900,7 @@
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
     </row>
-    <row r="46" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" ht="13.8">
       <c r="A46" s="31" t="s">
         <v>497</v>
       </c>
@@ -9838,7 +9952,7 @@
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
     </row>
-    <row r="47" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" ht="13.8">
       <c r="A47" s="31" t="s">
         <v>502</v>
       </c>
@@ -9890,7 +10004,7 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
     </row>
-    <row r="48" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" ht="13.8">
       <c r="A48" s="31" t="s">
         <v>503</v>
       </c>
@@ -9942,7 +10056,7 @@
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
     </row>
-    <row r="49" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" ht="13.8">
       <c r="A49" s="31" t="s">
         <v>505</v>
       </c>
@@ -9994,7 +10108,7 @@
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
     </row>
-    <row r="50" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" ht="13.8">
       <c r="A50" s="31" t="s">
         <v>507</v>
       </c>
@@ -10046,7 +10160,7 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
     </row>
-    <row r="51" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" ht="13.8">
       <c r="A51" s="31" t="s">
         <v>509</v>
       </c>
@@ -10098,7 +10212,7 @@
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
     </row>
-    <row r="52" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" ht="13.8">
       <c r="A52" s="31" t="s">
         <v>511</v>
       </c>
@@ -10150,7 +10264,7 @@
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
     </row>
-    <row r="53" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" ht="13.8">
       <c r="A53" s="31" t="s">
         <v>513</v>
       </c>
@@ -10202,7 +10316,7 @@
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
     </row>
-    <row r="54" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" ht="13.8">
       <c r="A54" s="31" t="s">
         <v>515</v>
       </c>
@@ -10254,7 +10368,7 @@
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
     </row>
-    <row r="55" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" ht="13.8">
       <c r="A55" s="31" t="s">
         <v>522</v>
       </c>
@@ -10306,7 +10420,7 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
     </row>
-    <row r="56" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" ht="13.8">
       <c r="A56" s="31" t="s">
         <v>524</v>
       </c>
@@ -10358,7 +10472,7 @@
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
     </row>
-    <row r="57" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" ht="13.8">
       <c r="A57" s="31" t="s">
         <v>526</v>
       </c>
@@ -10410,7 +10524,7 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
     </row>
-    <row r="58" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" ht="13.8">
       <c r="A58" s="31" t="s">
         <v>527</v>
       </c>
@@ -10462,7 +10576,7 @@
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
     </row>
-    <row r="59" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" ht="13.8">
       <c r="A59" s="31" t="s">
         <v>529</v>
       </c>
@@ -10514,7 +10628,7 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
     </row>
-    <row r="60" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" ht="13.8">
       <c r="A60" s="31" t="s">
         <v>531</v>
       </c>
@@ -10566,7 +10680,7 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
     </row>
-    <row r="61" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" ht="13.8">
       <c r="A61" s="31" t="s">
         <v>538</v>
       </c>
@@ -10618,7 +10732,7 @@
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
     </row>
-    <row r="62" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" ht="13.8">
       <c r="A62" s="31" t="s">
         <v>540</v>
       </c>
@@ -10670,7 +10784,7 @@
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
     </row>
-    <row r="63" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" ht="13.8">
       <c r="A63" s="31" t="s">
         <v>542</v>
       </c>
@@ -10722,7 +10836,7 @@
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
     </row>
-    <row r="64" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" ht="13.8">
       <c r="A64" s="31" t="s">
         <v>544</v>
       </c>
@@ -10774,7 +10888,7 @@
       <c r="T64" s="21"/>
       <c r="U64" s="21"/>
     </row>
-    <row r="65" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" ht="13.8">
       <c r="A65" s="31" t="s">
         <v>546</v>
       </c>
@@ -10826,7 +10940,7 @@
       <c r="T65" s="21"/>
       <c r="U65" s="21"/>
     </row>
-    <row r="66" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" ht="13.8">
       <c r="A66" s="31" t="s">
         <v>548</v>
       </c>
@@ -10878,7 +10992,7 @@
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
     </row>
-    <row r="67" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" ht="13.8">
       <c r="A67" s="31" t="s">
         <v>552</v>
       </c>
@@ -10930,7 +11044,7 @@
       <c r="T67" s="21"/>
       <c r="U67" s="21"/>
     </row>
-    <row r="68" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" ht="13.8">
       <c r="A68" s="31" t="s">
         <v>554</v>
       </c>
@@ -10982,7 +11096,7 @@
       <c r="T68" s="21"/>
       <c r="U68" s="21"/>
     </row>
-    <row r="69" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" ht="13.8">
       <c r="A69" s="34" t="s">
         <v>556</v>
       </c>
@@ -11034,7 +11148,7 @@
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
     </row>
-    <row r="70" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" ht="13.8">
       <c r="A70" s="31" t="s">
         <v>558</v>
       </c>
@@ -11086,7 +11200,7 @@
       <c r="T70" s="21"/>
       <c r="U70" s="21"/>
     </row>
-    <row r="71" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" ht="13.8">
       <c r="A71" s="31" t="s">
         <v>560</v>
       </c>
@@ -11138,7 +11252,7 @@
       <c r="T71" s="21"/>
       <c r="U71" s="21"/>
     </row>
-    <row r="72" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" ht="13.8">
       <c r="A72" s="31" t="s">
         <v>562</v>
       </c>
@@ -11190,7 +11304,7 @@
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
     </row>
-    <row r="73" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" ht="13.8">
       <c r="A73" s="31" t="s">
         <v>567</v>
       </c>
@@ -11242,7 +11356,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="21"/>
     </row>
-    <row r="74" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" ht="13.8">
       <c r="A74" s="31" t="s">
         <v>569</v>
       </c>
@@ -11294,7 +11408,7 @@
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
     </row>
-    <row r="75" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" ht="13.8">
       <c r="A75" s="31" t="s">
         <v>571</v>
       </c>
@@ -11348,7 +11462,7 @@
       <c r="T75" s="21"/>
       <c r="U75" s="21"/>
     </row>
-    <row r="76" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" ht="13.8">
       <c r="A76" s="31" t="s">
         <v>573</v>
       </c>
@@ -11400,7 +11514,7 @@
       <c r="T76" s="21"/>
       <c r="U76" s="21"/>
     </row>
-    <row r="77" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" ht="13.8">
       <c r="A77" s="31" t="s">
         <v>620</v>
       </c>
@@ -11452,7 +11566,7 @@
       <c r="T77" s="21"/>
       <c r="U77" s="21"/>
     </row>
-    <row r="78" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" ht="13.8">
       <c r="A78" s="31" t="s">
         <v>622</v>
       </c>
@@ -11504,7 +11618,7 @@
       <c r="T78" s="21"/>
       <c r="U78" s="21"/>
     </row>
-    <row r="79" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" ht="13.8">
       <c r="A79" s="31" t="s">
         <v>626</v>
       </c>
@@ -11556,7 +11670,7 @@
       <c r="T79" s="21"/>
       <c r="U79" s="21"/>
     </row>
-    <row r="80" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" ht="13.8">
       <c r="A80" s="31" t="s">
         <v>628</v>
       </c>
@@ -11608,7 +11722,7 @@
       <c r="T80" s="21"/>
       <c r="U80" s="21"/>
     </row>
-    <row r="81" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" ht="13.8">
       <c r="A81" s="31" t="s">
         <v>630</v>
       </c>
@@ -11660,7 +11774,7 @@
       <c r="T81" s="21"/>
       <c r="U81" s="21"/>
     </row>
-    <row r="82" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" ht="13.8">
       <c r="A82" s="31" t="s">
         <v>632</v>
       </c>
@@ -11712,7 +11826,7 @@
       <c r="T82" s="21"/>
       <c r="U82" s="21"/>
     </row>
-    <row r="83" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" ht="13.8">
       <c r="A83" s="31" t="s">
         <v>634</v>
       </c>
@@ -11764,7 +11878,7 @@
       <c r="T83" s="21"/>
       <c r="U83" s="21"/>
     </row>
-    <row r="84" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" ht="13.8">
       <c r="A84" s="31" t="s">
         <v>636</v>
       </c>
@@ -11816,7 +11930,7 @@
       <c r="T84" s="21"/>
       <c r="U84" s="21"/>
     </row>
-    <row r="85" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" ht="13.8">
       <c r="A85" s="31" t="s">
         <v>638</v>
       </c>
@@ -11868,7 +11982,7 @@
       <c r="T85" s="21"/>
       <c r="U85" s="21"/>
     </row>
-    <row r="86" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" ht="13.8">
       <c r="A86" s="31" t="s">
         <v>640</v>
       </c>
@@ -11920,7 +12034,7 @@
       <c r="T86" s="21"/>
       <c r="U86" s="21"/>
     </row>
-    <row r="87" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" ht="13.8">
       <c r="A87" s="36" t="s">
         <v>575</v>
       </c>
@@ -11972,7 +12086,7 @@
       <c r="T87" s="21"/>
       <c r="U87" s="21"/>
     </row>
-    <row r="88" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" ht="13.8">
       <c r="A88" s="36" t="s">
         <v>577</v>
       </c>
@@ -12024,7 +12138,7 @@
       <c r="T88" s="21"/>
       <c r="U88" s="21"/>
     </row>
-    <row r="89" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" ht="13.8">
       <c r="A89" s="36" t="s">
         <v>579</v>
       </c>
@@ -12076,7 +12190,7 @@
       <c r="T89" s="21"/>
       <c r="U89" s="21"/>
     </row>
-    <row r="90" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" ht="13.8">
       <c r="A90" s="36" t="s">
         <v>587</v>
       </c>
@@ -12128,7 +12242,7 @@
       <c r="T90" s="21"/>
       <c r="U90" s="21"/>
     </row>
-    <row r="91" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" ht="13.8">
       <c r="A91" s="36" t="s">
         <v>589</v>
       </c>
@@ -12182,7 +12296,7 @@
       <c r="T91" s="21"/>
       <c r="U91" s="21"/>
     </row>
-    <row r="92" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" ht="13.8">
       <c r="A92" s="36" t="s">
         <v>591</v>
       </c>
@@ -12234,7 +12348,7 @@
       <c r="T92" s="21"/>
       <c r="U92" s="21"/>
     </row>
-    <row r="93" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" ht="13.8">
       <c r="A93" s="36" t="s">
         <v>593</v>
       </c>
@@ -12286,7 +12400,7 @@
       <c r="T93" s="21"/>
       <c r="U93" s="21"/>
     </row>
-    <row r="94" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" ht="13.8">
       <c r="A94" s="36" t="s">
         <v>595</v>
       </c>
@@ -12338,7 +12452,7 @@
       <c r="T94" s="21"/>
       <c r="U94" s="21"/>
     </row>
-    <row r="95" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" ht="13.8">
       <c r="A95" s="34" t="s">
         <v>597</v>
       </c>
@@ -12390,7 +12504,7 @@
       <c r="T95" s="21"/>
       <c r="U95" s="21"/>
     </row>
-    <row r="96" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" ht="13.8">
       <c r="A96" s="31" t="s">
         <v>599</v>
       </c>
@@ -12442,7 +12556,7 @@
       <c r="T96" s="21"/>
       <c r="U96" s="21"/>
     </row>
-    <row r="97" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" ht="13.8">
       <c r="A97" s="31" t="s">
         <v>601</v>
       </c>
@@ -12494,7 +12608,7 @@
       <c r="T97" s="21"/>
       <c r="U97" s="21"/>
     </row>
-    <row r="98" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" ht="13.8">
       <c r="A98" s="31" t="s">
         <v>608</v>
       </c>
@@ -12546,7 +12660,7 @@
       <c r="T98" s="21"/>
       <c r="U98" s="21"/>
     </row>
-    <row r="99" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" ht="13.8">
       <c r="A99" s="31" t="s">
         <v>610</v>
       </c>
@@ -12598,7 +12712,7 @@
       <c r="T99" s="21"/>
       <c r="U99" s="21"/>
     </row>
-    <row r="100" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" ht="13.8">
       <c r="A100" s="31" t="s">
         <v>612</v>
       </c>
@@ -12650,7 +12764,7 @@
       <c r="T100" s="21"/>
       <c r="U100" s="21"/>
     </row>
-    <row r="101" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" ht="13.8">
       <c r="A101" s="31" t="s">
         <v>614</v>
       </c>
@@ -12702,7 +12816,7 @@
       <c r="T101" s="21"/>
       <c r="U101" s="21"/>
     </row>
-    <row r="102" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" ht="13.8">
       <c r="A102" s="31" t="s">
         <v>616</v>
       </c>
@@ -12756,7 +12870,7 @@
       <c r="T102" s="21"/>
       <c r="U102" s="21"/>
     </row>
-    <row r="103" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" ht="13.8">
       <c r="A103" s="31" t="s">
         <v>618</v>
       </c>
@@ -12808,7 +12922,7 @@
       <c r="T103" s="21"/>
       <c r="U103" s="21"/>
     </row>
-    <row r="104" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" ht="13.8">
       <c r="A104" s="31" t="s">
         <v>644</v>
       </c>
@@ -12860,7 +12974,7 @@
       <c r="T104" s="21"/>
       <c r="U104" s="21"/>
     </row>
-    <row r="105" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" ht="13.8">
       <c r="A105" s="31" t="s">
         <v>645</v>
       </c>
@@ -12912,7 +13026,7 @@
       <c r="T105" s="21"/>
       <c r="U105" s="21"/>
     </row>
-    <row r="106" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" ht="13.8">
       <c r="A106" s="31" t="s">
         <v>646</v>
       </c>
@@ -12964,7 +13078,7 @@
       <c r="T106" s="21"/>
       <c r="U106" s="21"/>
     </row>
-    <row r="107" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" ht="13.8">
       <c r="A107" s="31" t="s">
         <v>647</v>
       </c>
@@ -13016,7 +13130,7 @@
       <c r="T107" s="21"/>
       <c r="U107" s="21"/>
     </row>
-    <row r="108" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" ht="13.8">
       <c r="A108" s="31" t="s">
         <v>648</v>
       </c>
@@ -13068,7 +13182,7 @@
       <c r="T108" s="21"/>
       <c r="U108" s="21"/>
     </row>
-    <row r="109" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" ht="13.8">
       <c r="A109" s="31" t="s">
         <v>649</v>
       </c>
@@ -13120,7 +13234,7 @@
       <c r="T109" s="21"/>
       <c r="U109" s="21"/>
     </row>
-    <row r="110" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" ht="13.8">
       <c r="A110" s="31" t="s">
         <v>650</v>
       </c>
@@ -13172,7 +13286,7 @@
       <c r="T110" s="21"/>
       <c r="U110" s="21"/>
     </row>
-    <row r="111" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" ht="13.8">
       <c r="A111" s="31" t="s">
         <v>651</v>
       </c>
@@ -13224,7 +13338,7 @@
       <c r="T111" s="21"/>
       <c r="U111" s="21"/>
     </row>
-    <row r="112" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" ht="13.8">
       <c r="A112" s="31" t="s">
         <v>652</v>
       </c>
@@ -13276,7 +13390,7 @@
       <c r="T112" s="21"/>
       <c r="U112" s="21"/>
     </row>
-    <row r="113" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" ht="13.8">
       <c r="A113" s="31" t="s">
         <v>653</v>
       </c>
@@ -13328,7 +13442,7 @@
       <c r="T113" s="21"/>
       <c r="U113" s="21"/>
     </row>
-    <row r="114" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" ht="13.8">
       <c r="A114" s="31" t="s">
         <v>654</v>
       </c>
@@ -13380,7 +13494,7 @@
       <c r="T114" s="21"/>
       <c r="U114" s="21"/>
     </row>
-    <row r="115" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" ht="13.8">
       <c r="A115" s="26" t="s">
         <v>655</v>
       </c>
@@ -13432,7 +13546,7 @@
       <c r="T115" s="21"/>
       <c r="U115" s="21"/>
     </row>
-    <row r="116" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" ht="13.8">
       <c r="A116" s="26" t="s">
         <v>656</v>
       </c>
@@ -13484,7 +13598,7 @@
       <c r="T116" s="21"/>
       <c r="U116" s="21"/>
     </row>
-    <row r="117" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" ht="13.8">
       <c r="A117" s="26" t="s">
         <v>657</v>
       </c>
@@ -13536,7 +13650,7 @@
       <c r="T117" s="39"/>
       <c r="U117" s="39"/>
     </row>
-    <row r="118" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" ht="13.8">
       <c r="A118" s="26" t="s">
         <v>658</v>
       </c>
@@ -13588,7 +13702,7 @@
       <c r="T118" s="39"/>
       <c r="U118" s="39"/>
     </row>
-    <row r="119" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" ht="13.8">
       <c r="A119" s="26" t="s">
         <v>659</v>
       </c>
@@ -13640,7 +13754,7 @@
       <c r="T119" s="39"/>
       <c r="U119" s="39"/>
     </row>
-    <row r="120" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:21" ht="13.8">
       <c r="A120" s="26" t="s">
         <v>660</v>
       </c>
@@ -13692,7 +13806,7 @@
       <c r="T120" s="39"/>
       <c r="U120" s="39"/>
     </row>
-    <row r="121" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:21" ht="13.8">
       <c r="A121" s="26" t="s">
         <v>661</v>
       </c>
@@ -13744,7 +13858,7 @@
       <c r="T121" s="40"/>
       <c r="U121" s="40"/>
     </row>
-    <row r="122" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" ht="13.8">
       <c r="A122" s="26" t="s">
         <v>662</v>
       </c>
@@ -13796,7 +13910,7 @@
       <c r="T122" s="39"/>
       <c r="U122" s="39"/>
     </row>
-    <row r="123" spans="1:21" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" ht="13.8">
       <c r="A123" s="26" t="s">
         <v>663</v>
       </c>
@@ -13848,7 +13962,7 @@
       <c r="T123" s="33"/>
       <c r="U123" s="33"/>
     </row>
-    <row r="124" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" ht="13.2">
       <c r="A124" s="26" t="s">
         <v>16</v>
       </c>
@@ -13899,7 +14013,7 @@
       <c r="T124" s="39"/>
       <c r="U124" s="39"/>
     </row>
-    <row r="125" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" ht="13.2">
       <c r="A125" s="26" t="s">
         <v>18</v>
       </c>
@@ -13950,7 +14064,7 @@
       <c r="T125" s="39"/>
       <c r="U125" s="39"/>
     </row>
-    <row r="126" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" ht="13.2">
       <c r="A126" s="26" t="s">
         <v>20</v>
       </c>
@@ -14001,7 +14115,7 @@
       <c r="T126" s="39"/>
       <c r="U126" s="39"/>
     </row>
-    <row r="127" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" ht="13.2">
       <c r="A127" s="26" t="s">
         <v>22</v>
       </c>
@@ -14052,7 +14166,7 @@
       <c r="T127" s="39"/>
       <c r="U127" s="39"/>
     </row>
-    <row r="128" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" ht="13.2">
       <c r="A128" s="26" t="s">
         <v>24</v>
       </c>
@@ -14103,7 +14217,7 @@
       <c r="T128" s="33"/>
       <c r="U128" s="33"/>
     </row>
-    <row r="129" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" ht="13.2">
       <c r="A129" s="26" t="s">
         <v>26</v>
       </c>
@@ -14154,7 +14268,7 @@
       <c r="T129" s="39"/>
       <c r="U129" s="39"/>
     </row>
-    <row r="130" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" ht="13.2">
       <c r="A130" s="26" t="s">
         <v>367</v>
       </c>
@@ -14205,7 +14319,7 @@
       <c r="T130" s="39"/>
       <c r="U130" s="39"/>
     </row>
-    <row r="131" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" ht="13.2">
       <c r="A131" s="26" t="s">
         <v>28</v>
       </c>
@@ -14256,7 +14370,7 @@
       <c r="T131" s="39"/>
       <c r="U131" s="39"/>
     </row>
-    <row r="132" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" ht="13.2">
       <c r="A132" s="26" t="s">
         <v>30</v>
       </c>
@@ -14307,7 +14421,7 @@
       <c r="T132" s="39"/>
       <c r="U132" s="39"/>
     </row>
-    <row r="133" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" ht="13.2">
       <c r="A133" s="26" t="s">
         <v>35</v>
       </c>
@@ -14358,7 +14472,7 @@
       <c r="T133" s="39"/>
       <c r="U133" s="39"/>
     </row>
-    <row r="134" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" ht="13.2">
       <c r="A134" s="26" t="s">
         <v>37</v>
       </c>
@@ -14409,7 +14523,7 @@
       <c r="T134" s="39"/>
       <c r="U134" s="39"/>
     </row>
-    <row r="135" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="13.2">
       <c r="A135" s="26" t="s">
         <v>39</v>
       </c>
@@ -14460,7 +14574,7 @@
       <c r="T135" s="39"/>
       <c r="U135" s="39"/>
     </row>
-    <row r="136" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" ht="13.2">
       <c r="A136" s="26" t="s">
         <v>41</v>
       </c>
@@ -14511,7 +14625,7 @@
       <c r="T136" s="39"/>
       <c r="U136" s="39"/>
     </row>
-    <row r="137" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" ht="13.2">
       <c r="A137" s="26" t="s">
         <v>45</v>
       </c>
@@ -14562,7 +14676,7 @@
       <c r="T137" s="39"/>
       <c r="U137" s="39"/>
     </row>
-    <row r="138" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" ht="13.2">
       <c r="A138" s="26" t="s">
         <v>47</v>
       </c>
@@ -14613,7 +14727,7 @@
       <c r="T138" s="33"/>
       <c r="U138" s="33"/>
     </row>
-    <row r="139" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" ht="13.2">
       <c r="A139" s="26" t="s">
         <v>49</v>
       </c>
@@ -14664,7 +14778,7 @@
       <c r="T139" s="39"/>
       <c r="U139" s="39"/>
     </row>
-    <row r="140" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" ht="13.2">
       <c r="A140" s="26" t="s">
         <v>51</v>
       </c>
@@ -14715,7 +14829,7 @@
       <c r="T140" s="39"/>
       <c r="U140" s="39"/>
     </row>
-    <row r="141" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" ht="13.2">
       <c r="A141" s="26" t="s">
         <v>206</v>
       </c>
@@ -14766,7 +14880,7 @@
       <c r="T141" s="39"/>
       <c r="U141" s="39"/>
     </row>
-    <row r="142" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" ht="13.2">
       <c r="A142" s="26" t="s">
         <v>259</v>
       </c>
@@ -14815,7 +14929,7 @@
       <c r="T142" s="39"/>
       <c r="U142" s="39"/>
     </row>
-    <row r="143" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="13.2">
       <c r="A143" s="26" t="s">
         <v>53</v>
       </c>
@@ -14866,7 +14980,7 @@
       <c r="T143" s="39"/>
       <c r="U143" s="39"/>
     </row>
-    <row r="144" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" ht="13.2">
       <c r="A144" s="26" t="s">
         <v>55</v>
       </c>
@@ -14917,7 +15031,7 @@
       <c r="T144" s="41"/>
       <c r="U144" s="41"/>
     </row>
-    <row r="145" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" ht="13.2">
       <c r="A145" s="26" t="s">
         <v>57</v>
       </c>
@@ -14968,7 +15082,7 @@
       <c r="T145" s="39"/>
       <c r="U145" s="39"/>
     </row>
-    <row r="146" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="13.2">
       <c r="A146" s="26" t="s">
         <v>59</v>
       </c>
@@ -15021,7 +15135,7 @@
       <c r="T146" s="39"/>
       <c r="U146" s="39"/>
     </row>
-    <row r="147" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="13.2">
       <c r="A147" s="26" t="s">
         <v>61</v>
       </c>
@@ -15072,7 +15186,7 @@
       <c r="T147" s="39"/>
       <c r="U147" s="39"/>
     </row>
-    <row r="148" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="13.2">
       <c r="A148" s="26" t="s">
         <v>371</v>
       </c>
@@ -15121,7 +15235,7 @@
       <c r="T148" s="39"/>
       <c r="U148" s="39"/>
     </row>
-    <row r="149" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" ht="13.2">
       <c r="A149" s="26" t="s">
         <v>63</v>
       </c>
@@ -15172,7 +15286,7 @@
       <c r="T149" s="39"/>
       <c r="U149" s="39"/>
     </row>
-    <row r="150" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" ht="13.2">
       <c r="A150" s="26" t="s">
         <v>361</v>
       </c>
@@ -15221,7 +15335,7 @@
       <c r="T150" s="39"/>
       <c r="U150" s="39"/>
     </row>
-    <row r="151" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" ht="13.2">
       <c r="A151" s="26" t="s">
         <v>65</v>
       </c>
@@ -15270,7 +15384,7 @@
       <c r="T151" s="39"/>
       <c r="U151" s="39"/>
     </row>
-    <row r="152" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" ht="13.2">
       <c r="A152" s="26" t="s">
         <v>67</v>
       </c>
@@ -15321,7 +15435,7 @@
       <c r="T152" s="21"/>
       <c r="U152" s="21"/>
     </row>
-    <row r="153" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" ht="13.2">
       <c r="A153" s="26" t="s">
         <v>69</v>
       </c>
@@ -15370,7 +15484,7 @@
       <c r="T153" s="21"/>
       <c r="U153" s="21"/>
     </row>
-    <row r="154" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" ht="13.2">
       <c r="A154" s="26" t="s">
         <v>71</v>
       </c>
@@ -15419,7 +15533,7 @@
       <c r="T154" s="21"/>
       <c r="U154" s="21"/>
     </row>
-    <row r="155" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" ht="13.2">
       <c r="A155" s="26" t="s">
         <v>73</v>
       </c>
@@ -15468,7 +15582,7 @@
       <c r="T155" s="21"/>
       <c r="U155" s="21"/>
     </row>
-    <row r="156" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" ht="13.2">
       <c r="A156" s="26" t="s">
         <v>75</v>
       </c>
@@ -15519,7 +15633,7 @@
       <c r="T156" s="21"/>
       <c r="U156" s="21"/>
     </row>
-    <row r="157" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" ht="13.2">
       <c r="A157" s="26" t="s">
         <v>77</v>
       </c>
@@ -15570,7 +15684,7 @@
       <c r="T157" s="21"/>
       <c r="U157" s="21"/>
     </row>
-    <row r="158" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="13.2">
       <c r="A158" s="26" t="s">
         <v>262</v>
       </c>
@@ -15619,7 +15733,7 @@
       <c r="T158" s="21"/>
       <c r="U158" s="21"/>
     </row>
-    <row r="159" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" ht="13.2">
       <c r="A159" s="26" t="s">
         <v>748</v>
       </c>
@@ -15670,7 +15784,7 @@
       <c r="T159" s="21"/>
       <c r="U159" s="21"/>
     </row>
-    <row r="160" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="13.2">
       <c r="A160" s="26" t="s">
         <v>7</v>
       </c>
@@ -15719,7 +15833,7 @@
       <c r="T160" s="21"/>
       <c r="U160" s="21"/>
     </row>
-    <row r="161" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" ht="13.2">
       <c r="A161" s="26" t="s">
         <v>751</v>
       </c>
@@ -15768,7 +15882,7 @@
       <c r="T161" s="21"/>
       <c r="U161" s="21"/>
     </row>
-    <row r="162" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" ht="13.2">
       <c r="A162" s="26" t="s">
         <v>79</v>
       </c>
@@ -15819,7 +15933,7 @@
       <c r="T162" s="21"/>
       <c r="U162" s="21"/>
     </row>
-    <row r="163" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" ht="13.2">
       <c r="A163" s="26" t="s">
         <v>82</v>
       </c>
@@ -15868,7 +15982,7 @@
       <c r="T163" s="42"/>
       <c r="U163" s="42"/>
     </row>
-    <row r="164" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" ht="13.2">
       <c r="A164" s="26" t="s">
         <v>84</v>
       </c>
@@ -15919,7 +16033,7 @@
       <c r="T164" s="21"/>
       <c r="U164" s="21"/>
     </row>
-    <row r="165" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" ht="13.2">
       <c r="A165" s="26" t="s">
         <v>86</v>
       </c>
@@ -15970,7 +16084,7 @@
       <c r="T165" s="21"/>
       <c r="U165" s="21"/>
     </row>
-    <row r="166" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" ht="13.2">
       <c r="A166" s="26" t="s">
         <v>88</v>
       </c>
@@ -16019,7 +16133,7 @@
       <c r="T166" s="21"/>
       <c r="U166" s="21"/>
     </row>
-    <row r="167" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" ht="13.2">
       <c r="A167" s="26" t="s">
         <v>90</v>
       </c>
@@ -16070,7 +16184,7 @@
       <c r="T167" s="33"/>
       <c r="U167" s="33"/>
     </row>
-    <row r="168" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" ht="13.2">
       <c r="A168" s="26" t="s">
         <v>368</v>
       </c>
@@ -16119,7 +16233,7 @@
       <c r="T168" s="21"/>
       <c r="U168" s="21"/>
     </row>
-    <row r="169" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" ht="13.2">
       <c r="A169" s="26" t="s">
         <v>92</v>
       </c>
@@ -16170,7 +16284,7 @@
       <c r="T169" s="21"/>
       <c r="U169" s="21"/>
     </row>
-    <row r="170" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" ht="13.2">
       <c r="A170" s="26" t="s">
         <v>94</v>
       </c>
@@ -16219,7 +16333,7 @@
       <c r="T170" s="21"/>
       <c r="U170" s="21"/>
     </row>
-    <row r="171" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" ht="13.2">
       <c r="A171" s="26" t="s">
         <v>96</v>
       </c>
@@ -16268,7 +16382,7 @@
       <c r="T171" s="21"/>
       <c r="U171" s="21"/>
     </row>
-    <row r="172" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" ht="13.2">
       <c r="A172" s="26" t="s">
         <v>98</v>
       </c>
@@ -16319,7 +16433,7 @@
       <c r="T172" s="21"/>
       <c r="U172" s="21"/>
     </row>
-    <row r="173" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" ht="13.2">
       <c r="A173" s="26" t="s">
         <v>100</v>
       </c>
@@ -16368,7 +16482,7 @@
       <c r="T173" s="21"/>
       <c r="U173" s="21"/>
     </row>
-    <row r="174" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" ht="13.2">
       <c r="A174" s="26" t="s">
         <v>104</v>
       </c>
@@ -16419,7 +16533,7 @@
       <c r="T174" s="21"/>
       <c r="U174" s="21"/>
     </row>
-    <row r="175" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" ht="13.2">
       <c r="A175" s="26" t="s">
         <v>106</v>
       </c>
@@ -16468,7 +16582,7 @@
       <c r="T175" s="21"/>
       <c r="U175" s="21"/>
     </row>
-    <row r="176" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" ht="13.2">
       <c r="A176" s="26" t="s">
         <v>108</v>
       </c>
@@ -16519,7 +16633,7 @@
       <c r="T176" s="39"/>
       <c r="U176" s="39"/>
     </row>
-    <row r="177" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" ht="13.2">
       <c r="A177" s="26" t="s">
         <v>110</v>
       </c>
@@ -16568,7 +16682,7 @@
       <c r="T177" s="33"/>
       <c r="U177" s="21"/>
     </row>
-    <row r="178" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" ht="13.2">
       <c r="A178" s="26" t="s">
         <v>768</v>
       </c>
@@ -16617,7 +16731,7 @@
       <c r="T178" s="40"/>
       <c r="U178" s="40"/>
     </row>
-    <row r="179" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" ht="13.2">
       <c r="A179" s="26" t="s">
         <v>112</v>
       </c>
@@ -16666,7 +16780,7 @@
       <c r="T179" s="21"/>
       <c r="U179" s="21"/>
     </row>
-    <row r="180" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" ht="13.2">
       <c r="A180" s="26" t="s">
         <v>364</v>
       </c>
@@ -16717,7 +16831,7 @@
       <c r="T180" s="21"/>
       <c r="U180" s="21"/>
     </row>
-    <row r="181" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" ht="13.2">
       <c r="A181" s="26" t="s">
         <v>102</v>
       </c>
@@ -16766,7 +16880,7 @@
       <c r="T181" s="21"/>
       <c r="U181" s="21"/>
     </row>
-    <row r="182" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" ht="13.2">
       <c r="A182" s="26" t="s">
         <v>115</v>
       </c>
@@ -16817,7 +16931,7 @@
       <c r="T182" s="21"/>
       <c r="U182" s="21"/>
     </row>
-    <row r="183" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" ht="13.2">
       <c r="A183" s="26" t="s">
         <v>773</v>
       </c>
@@ -16868,7 +16982,7 @@
       <c r="T183" s="33"/>
       <c r="U183" s="33"/>
     </row>
-    <row r="184" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" ht="13.2">
       <c r="A184" s="26" t="s">
         <v>117</v>
       </c>
@@ -16917,7 +17031,7 @@
       <c r="T184" s="21"/>
       <c r="U184" s="21"/>
     </row>
-    <row r="185" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" ht="13.2">
       <c r="A185" s="26" t="s">
         <v>263</v>
       </c>
@@ -16966,7 +17080,7 @@
       <c r="T185" s="21"/>
       <c r="U185" s="21"/>
     </row>
-    <row r="186" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" ht="13.2">
       <c r="A186" s="26" t="s">
         <v>119</v>
       </c>
@@ -17017,7 +17131,7 @@
       <c r="T186" s="33"/>
       <c r="U186" s="33"/>
     </row>
-    <row r="187" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" ht="13.2">
       <c r="A187" s="26" t="s">
         <v>121</v>
       </c>
@@ -17068,7 +17182,7 @@
       <c r="T187" s="21"/>
       <c r="U187" s="21"/>
     </row>
-    <row r="188" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" ht="13.2">
       <c r="A188" s="26" t="s">
         <v>123</v>
       </c>
@@ -17119,7 +17233,7 @@
       <c r="T188" s="21"/>
       <c r="U188" s="21"/>
     </row>
-    <row r="189" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" ht="13.2">
       <c r="A189" s="26" t="s">
         <v>125</v>
       </c>
@@ -17168,7 +17282,7 @@
       <c r="T189" s="21"/>
       <c r="U189" s="21"/>
     </row>
-    <row r="190" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" ht="13.2">
       <c r="A190" s="26" t="s">
         <v>781</v>
       </c>
@@ -17219,7 +17333,7 @@
       <c r="T190" s="33"/>
       <c r="U190" s="33"/>
     </row>
-    <row r="191" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" ht="13.2">
       <c r="A191" s="26" t="s">
         <v>127</v>
       </c>
@@ -17270,7 +17384,7 @@
       <c r="T191" s="21"/>
       <c r="U191" s="21"/>
     </row>
-    <row r="192" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" ht="13.2">
       <c r="A192" s="26" t="s">
         <v>129</v>
       </c>
@@ -17319,7 +17433,7 @@
       <c r="T192" s="21"/>
       <c r="U192" s="21"/>
     </row>
-    <row r="193" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" ht="13.2">
       <c r="A193" s="26" t="s">
         <v>131</v>
       </c>
@@ -17370,7 +17484,7 @@
       <c r="T193" s="21"/>
       <c r="U193" s="21"/>
     </row>
-    <row r="194" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" ht="13.2">
       <c r="A194" s="26" t="s">
         <v>258</v>
       </c>
@@ -17419,7 +17533,7 @@
       <c r="T194" s="21"/>
       <c r="U194" s="21"/>
     </row>
-    <row r="195" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" ht="13.2">
       <c r="A195" s="26" t="s">
         <v>133</v>
       </c>
@@ -17468,7 +17582,7 @@
       <c r="T195" s="21"/>
       <c r="U195" s="21"/>
     </row>
-    <row r="196" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" ht="13.2">
       <c r="A196" s="26" t="s">
         <v>135</v>
       </c>
@@ -17519,7 +17633,7 @@
       <c r="T196" s="33"/>
       <c r="U196" s="33"/>
     </row>
-    <row r="197" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" ht="13.2">
       <c r="A197" s="26" t="s">
         <v>372</v>
       </c>
@@ -17568,7 +17682,7 @@
       <c r="T197" s="21"/>
       <c r="U197" s="21"/>
     </row>
-    <row r="198" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" ht="13.2">
       <c r="A198" s="26" t="s">
         <v>137</v>
       </c>
@@ -17619,7 +17733,7 @@
       <c r="T198" s="21"/>
       <c r="U198" s="21"/>
     </row>
-    <row r="199" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" ht="13.2">
       <c r="A199" s="26" t="s">
         <v>139</v>
       </c>
@@ -17670,7 +17784,7 @@
       <c r="T199" s="21"/>
       <c r="U199" s="21"/>
     </row>
-    <row r="200" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" ht="13.2">
       <c r="A200" s="26" t="s">
         <v>141</v>
       </c>
@@ -17721,7 +17835,7 @@
       <c r="T200" s="40"/>
       <c r="U200" s="40"/>
     </row>
-    <row r="201" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" ht="13.2">
       <c r="A201" s="26" t="s">
         <v>11</v>
       </c>
@@ -17772,7 +17886,7 @@
       <c r="T201" s="21"/>
       <c r="U201" s="21"/>
     </row>
-    <row r="202" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" ht="13.2">
       <c r="A202" s="26" t="s">
         <v>143</v>
       </c>
@@ -17823,7 +17937,7 @@
       <c r="T202" s="21"/>
       <c r="U202" s="21"/>
     </row>
-    <row r="203" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" ht="13.2">
       <c r="A203" s="26" t="s">
         <v>145</v>
       </c>
@@ -17874,7 +17988,7 @@
       <c r="T203" s="21"/>
       <c r="U203" s="21"/>
     </row>
-    <row r="204" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" ht="13.2">
       <c r="A204" s="26" t="s">
         <v>147</v>
       </c>
@@ -17923,7 +18037,7 @@
       <c r="T204" s="21"/>
       <c r="U204" s="21"/>
     </row>
-    <row r="205" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" ht="13.2">
       <c r="A205" s="26" t="s">
         <v>149</v>
       </c>
@@ -17974,7 +18088,7 @@
       <c r="T205" s="21"/>
       <c r="U205" s="21"/>
     </row>
-    <row r="206" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" ht="13.2">
       <c r="A206" s="26" t="s">
         <v>798</v>
       </c>
@@ -18023,7 +18137,7 @@
       <c r="T206" s="21"/>
       <c r="U206" s="21"/>
     </row>
-    <row r="207" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" ht="13.2">
       <c r="A207" s="26" t="s">
         <v>151</v>
       </c>
@@ -18072,7 +18186,7 @@
       <c r="T207" s="21"/>
       <c r="U207" s="33"/>
     </row>
-    <row r="208" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" ht="13.2">
       <c r="A208" s="26" t="s">
         <v>153</v>
       </c>
@@ -18123,7 +18237,7 @@
       <c r="T208" s="21"/>
       <c r="U208" s="21"/>
     </row>
-    <row r="209" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" ht="13.2">
       <c r="A209" s="26" t="s">
         <v>155</v>
       </c>
@@ -18174,7 +18288,7 @@
       <c r="T209" s="21"/>
       <c r="U209" s="21"/>
     </row>
-    <row r="210" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" ht="13.2">
       <c r="A210" s="26" t="s">
         <v>260</v>
       </c>
@@ -18223,7 +18337,7 @@
       <c r="T210" s="21"/>
       <c r="U210" s="21"/>
     </row>
-    <row r="211" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" ht="13.2">
       <c r="A211" s="26" t="s">
         <v>157</v>
       </c>
@@ -18274,7 +18388,7 @@
       <c r="T211" s="21"/>
       <c r="U211" s="21"/>
     </row>
-    <row r="212" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" ht="13.2">
       <c r="A212" s="26" t="s">
         <v>159</v>
       </c>
@@ -18325,7 +18439,7 @@
       <c r="T212" s="21"/>
       <c r="U212" s="21"/>
     </row>
-    <row r="213" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" ht="13.2">
       <c r="A213" s="26" t="s">
         <v>806</v>
       </c>
@@ -18374,7 +18488,7 @@
       <c r="T213" s="21"/>
       <c r="U213" s="21"/>
     </row>
-    <row r="214" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" ht="13.2">
       <c r="A214" s="26" t="s">
         <v>161</v>
       </c>
@@ -18425,7 +18539,7 @@
       <c r="T214" s="21"/>
       <c r="U214" s="21"/>
     </row>
-    <row r="215" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" ht="13.2">
       <c r="A215" s="26" t="s">
         <v>257</v>
       </c>
@@ -18474,7 +18588,7 @@
       <c r="T215" s="21"/>
       <c r="U215" s="21"/>
     </row>
-    <row r="216" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" ht="13.2">
       <c r="A216" s="26" t="s">
         <v>163</v>
       </c>
@@ -18525,7 +18639,7 @@
       <c r="T216" s="21"/>
       <c r="U216" s="21"/>
     </row>
-    <row r="217" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" ht="13.2">
       <c r="A217" s="26" t="s">
         <v>811</v>
       </c>
@@ -18576,7 +18690,7 @@
       <c r="T217" s="21"/>
       <c r="U217" s="21"/>
     </row>
-    <row r="218" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" ht="13.2">
       <c r="A218" s="26" t="s">
         <v>9</v>
       </c>
@@ -18627,7 +18741,7 @@
       <c r="T218" s="21"/>
       <c r="U218" s="21"/>
     </row>
-    <row r="219" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" ht="13.2">
       <c r="A219" s="26" t="s">
         <v>814</v>
       </c>
@@ -18676,7 +18790,7 @@
       <c r="T219" s="21"/>
       <c r="U219" s="21"/>
     </row>
-    <row r="220" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" ht="13.2">
       <c r="A220" s="26" t="s">
         <v>165</v>
       </c>
@@ -18727,7 +18841,7 @@
       <c r="T220" s="21"/>
       <c r="U220" s="21"/>
     </row>
-    <row r="221" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" ht="13.2">
       <c r="A221" s="26" t="s">
         <v>817</v>
       </c>
@@ -18778,7 +18892,7 @@
       <c r="T221" s="21"/>
       <c r="U221" s="21"/>
     </row>
-    <row r="222" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" ht="13.2">
       <c r="A222" s="26" t="s">
         <v>167</v>
       </c>
@@ -18827,7 +18941,7 @@
       <c r="T222" s="21"/>
       <c r="U222" s="21"/>
     </row>
-    <row r="223" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" ht="13.2">
       <c r="A223" s="26" t="s">
         <v>375</v>
       </c>
@@ -18876,7 +18990,7 @@
       <c r="T223" s="21"/>
       <c r="U223" s="21"/>
     </row>
-    <row r="224" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" ht="13.2">
       <c r="A224" s="26" t="s">
         <v>169</v>
       </c>
@@ -18927,7 +19041,7 @@
       <c r="T224" s="33"/>
       <c r="U224" s="33"/>
     </row>
-    <row r="225" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" ht="13.2">
       <c r="A225" s="26" t="s">
         <v>171</v>
       </c>
@@ -18978,7 +19092,7 @@
       <c r="T225" s="21"/>
       <c r="U225" s="21"/>
     </row>
-    <row r="226" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" ht="13.2">
       <c r="A226" s="26" t="s">
         <v>173</v>
       </c>
@@ -19029,7 +19143,7 @@
       <c r="T226" s="21"/>
       <c r="U226" s="21"/>
     </row>
-    <row r="227" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" ht="13.2">
       <c r="A227" s="26" t="s">
         <v>175</v>
       </c>
@@ -19078,7 +19192,7 @@
       <c r="T227" s="21"/>
       <c r="U227" s="21"/>
     </row>
-    <row r="228" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" ht="13.2">
       <c r="A228" s="26" t="s">
         <v>264</v>
       </c>
@@ -19127,7 +19241,7 @@
       <c r="T228" s="21"/>
       <c r="U228" s="21"/>
     </row>
-    <row r="229" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" ht="13.2">
       <c r="A229" s="26" t="s">
         <v>177</v>
       </c>
@@ -19178,7 +19292,7 @@
       <c r="T229" s="21"/>
       <c r="U229" s="21"/>
     </row>
-    <row r="230" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" ht="13.2">
       <c r="A230" s="26" t="s">
         <v>827</v>
       </c>
@@ -19227,7 +19341,7 @@
       <c r="T230" s="21"/>
       <c r="U230" s="21"/>
     </row>
-    <row r="231" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" ht="13.2">
       <c r="A231" s="26" t="s">
         <v>179</v>
       </c>
@@ -19278,7 +19392,7 @@
       <c r="T231" s="21"/>
       <c r="U231" s="21"/>
     </row>
-    <row r="232" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" ht="13.2">
       <c r="A232" s="26" t="s">
         <v>181</v>
       </c>
@@ -19329,7 +19443,7 @@
       <c r="T232" s="21"/>
       <c r="U232" s="21"/>
     </row>
-    <row r="233" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" ht="13.2">
       <c r="A233" s="26" t="s">
         <v>183</v>
       </c>
@@ -19380,7 +19494,7 @@
       <c r="T233" s="21"/>
       <c r="U233" s="21"/>
     </row>
-    <row r="234" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" ht="13.2">
       <c r="A234" s="26" t="s">
         <v>185</v>
       </c>
@@ -19435,7 +19549,7 @@
       <c r="T234" s="21"/>
       <c r="U234" s="21"/>
     </row>
-    <row r="235" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" ht="13.2">
       <c r="A235" s="26" t="s">
         <v>187</v>
       </c>
@@ -19486,7 +19600,7 @@
       <c r="T235" s="40"/>
       <c r="U235" s="40"/>
     </row>
-    <row r="236" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" ht="13.2">
       <c r="A236" s="26" t="s">
         <v>189</v>
       </c>
@@ -19537,7 +19651,7 @@
       <c r="T236" s="21"/>
       <c r="U236" s="21"/>
     </row>
-    <row r="237" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" ht="13.2">
       <c r="A237" s="26" t="s">
         <v>191</v>
       </c>
@@ -19588,7 +19702,7 @@
       <c r="T237" s="21"/>
       <c r="U237" s="21"/>
     </row>
-    <row r="238" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" ht="13.2">
       <c r="A238" s="26" t="s">
         <v>837</v>
       </c>
@@ -19637,7 +19751,7 @@
       <c r="T238" s="21"/>
       <c r="U238" s="21"/>
     </row>
-    <row r="239" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" ht="13.2">
       <c r="A239" s="26" t="s">
         <v>261</v>
       </c>
@@ -19688,7 +19802,7 @@
       <c r="T239" s="21"/>
       <c r="U239" s="21"/>
     </row>
-    <row r="240" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" ht="13.2">
       <c r="A240" s="26" t="s">
         <v>193</v>
       </c>
@@ -19741,7 +19855,7 @@
       <c r="T240" s="33"/>
       <c r="U240" s="21"/>
     </row>
-    <row r="241" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" ht="13.2">
       <c r="A241" s="26" t="s">
         <v>841</v>
       </c>
@@ -19790,7 +19904,7 @@
       <c r="T241" s="40"/>
       <c r="U241" s="40"/>
     </row>
-    <row r="242" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" ht="13.2">
       <c r="A242" s="26" t="s">
         <v>843</v>
       </c>
@@ -19841,7 +19955,7 @@
       <c r="T242" s="21"/>
       <c r="U242" s="21"/>
     </row>
-    <row r="243" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" ht="13.2">
       <c r="A243" s="26" t="s">
         <v>196</v>
       </c>
@@ -19892,7 +20006,7 @@
       <c r="T243" s="21"/>
       <c r="U243" s="21"/>
     </row>
-    <row r="244" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="13.2">
       <c r="A244" s="26" t="s">
         <v>197</v>
       </c>
@@ -19943,7 +20057,7 @@
       <c r="T244" s="33"/>
       <c r="U244" s="33"/>
     </row>
-    <row r="245" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="13.2">
       <c r="A245" s="26" t="s">
         <v>847</v>
       </c>
@@ -19994,7 +20108,7 @@
       <c r="T245" s="21"/>
       <c r="U245" s="21"/>
     </row>
-    <row r="246" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="13.2">
       <c r="A246" s="26" t="s">
         <v>266</v>
       </c>
@@ -20043,7 +20157,7 @@
       <c r="T246" s="33"/>
       <c r="U246" s="21"/>
     </row>
-    <row r="247" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="13.2">
       <c r="A247" s="26" t="s">
         <v>241</v>
       </c>
@@ -20092,7 +20206,7 @@
       <c r="T247" s="21"/>
       <c r="U247" s="21"/>
     </row>
-    <row r="248" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" ht="13.2">
       <c r="A248" s="26" t="s">
         <v>851</v>
       </c>
@@ -20143,7 +20257,7 @@
       <c r="T248" s="21"/>
       <c r="U248" s="21"/>
     </row>
-    <row r="249" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" ht="13.2">
       <c r="A249" s="26" t="s">
         <v>370</v>
       </c>
@@ -20194,7 +20308,7 @@
       <c r="T249" s="21"/>
       <c r="U249" s="21"/>
     </row>
-    <row r="250" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" ht="13.2">
       <c r="A250" s="26" t="s">
         <v>267</v>
       </c>
@@ -20245,7 +20359,7 @@
       <c r="T250" s="21"/>
       <c r="U250" s="21"/>
     </row>
-    <row r="251" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" ht="13.2">
       <c r="A251" s="26" t="s">
         <v>373</v>
       </c>
@@ -20296,7 +20410,7 @@
       <c r="T251" s="21"/>
       <c r="U251" s="21"/>
     </row>
-    <row r="252" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" ht="13.2">
       <c r="A252" s="26" t="s">
         <v>369</v>
       </c>
@@ -20345,7 +20459,7 @@
       <c r="T252" s="21"/>
       <c r="U252" s="21"/>
     </row>
-    <row r="253" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" ht="13.2">
       <c r="A253" s="26" t="s">
         <v>857</v>
       </c>
@@ -20396,7 +20510,7 @@
       <c r="T253" s="21"/>
       <c r="U253" s="21"/>
     </row>
-    <row r="254" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" ht="13.2">
       <c r="A254" s="26" t="s">
         <v>377</v>
       </c>
@@ -20447,7 +20561,7 @@
       <c r="T254" s="21"/>
       <c r="U254" s="21"/>
     </row>
-    <row r="255" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" ht="13.2">
       <c r="A255" s="26" t="s">
         <v>242</v>
       </c>
@@ -20496,7 +20610,7 @@
       <c r="T255" s="21"/>
       <c r="U255" s="21"/>
     </row>
-    <row r="256" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" ht="13.2">
       <c r="A256" s="26" t="s">
         <v>861</v>
       </c>
@@ -20547,7 +20661,7 @@
       <c r="T256" s="21"/>
       <c r="U256" s="21"/>
     </row>
-    <row r="257" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" ht="13.2">
       <c r="A257" s="26" t="s">
         <v>863</v>
       </c>
@@ -20596,7 +20710,7 @@
       <c r="T257" s="21"/>
       <c r="U257" s="21"/>
     </row>
-    <row r="258" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" ht="13.2">
       <c r="A258" s="26" t="s">
         <v>865</v>
       </c>
@@ -20645,7 +20759,7 @@
       <c r="T258" s="21"/>
       <c r="U258" s="21"/>
     </row>
-    <row r="259" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" ht="13.2">
       <c r="A259" s="26" t="s">
         <v>243</v>
       </c>
@@ -20694,7 +20808,7 @@
       <c r="T259" s="21"/>
       <c r="U259" s="21"/>
     </row>
-    <row r="260" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" ht="13.2">
       <c r="A260" s="26" t="s">
         <v>265</v>
       </c>
@@ -20743,7 +20857,7 @@
       <c r="T260" s="21"/>
       <c r="U260" s="21"/>
     </row>
-    <row r="261" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" ht="13.2">
       <c r="A261" s="26" t="s">
         <v>869</v>
       </c>
@@ -20794,7 +20908,7 @@
       <c r="T261" s="21"/>
       <c r="U261" s="21"/>
     </row>
-    <row r="262" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" ht="13.2">
       <c r="A262" s="26" t="s">
         <v>366</v>
       </c>
@@ -20845,7 +20959,7 @@
       <c r="T262" s="21"/>
       <c r="U262" s="21"/>
     </row>
-    <row r="263" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" ht="13.2">
       <c r="A263" s="26" t="s">
         <v>13</v>
       </c>
@@ -20898,7 +21012,7 @@
       <c r="T263" s="21"/>
       <c r="U263" s="21"/>
     </row>
-    <row r="264" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" ht="13.2">
       <c r="A264" s="26" t="s">
         <v>244</v>
       </c>
@@ -20947,7 +21061,7 @@
       <c r="T264" s="21"/>
       <c r="U264" s="21"/>
     </row>
-    <row r="265" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" ht="13.2">
       <c r="A265" s="26" t="s">
         <v>875</v>
       </c>
@@ -20996,7 +21110,7 @@
       <c r="T265" s="21"/>
       <c r="U265" s="21"/>
     </row>
-    <row r="266" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" ht="13.2">
       <c r="A266" s="26" t="s">
         <v>269</v>
       </c>
@@ -21045,7 +21159,7 @@
       <c r="T266" s="21"/>
       <c r="U266" s="21"/>
     </row>
-    <row r="267" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" ht="13.2">
       <c r="A267" s="26" t="s">
         <v>878</v>
       </c>
@@ -21094,7 +21208,7 @@
       <c r="T267" s="21"/>
       <c r="U267" s="21"/>
     </row>
-    <row r="268" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" ht="13.2">
       <c r="A268" s="26" t="s">
         <v>270</v>
       </c>
@@ -21143,7 +21257,7 @@
       <c r="T268" s="21"/>
       <c r="U268" s="21"/>
     </row>
-    <row r="269" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" ht="13.2">
       <c r="A269" s="26" t="s">
         <v>14</v>
       </c>
@@ -21194,7 +21308,7 @@
       <c r="T269" s="21"/>
       <c r="U269" s="21"/>
     </row>
-    <row r="270" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" ht="13.2">
       <c r="A270" s="26" t="s">
         <v>882</v>
       </c>
@@ -21245,7 +21359,7 @@
       <c r="T270" s="21"/>
       <c r="U270" s="21"/>
     </row>
-    <row r="271" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" ht="13.2">
       <c r="A271" s="26" t="s">
         <v>885</v>
       </c>
@@ -21294,7 +21408,7 @@
       <c r="T271" s="21"/>
       <c r="U271" s="21"/>
     </row>
-    <row r="272" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" ht="13.2">
       <c r="A272" s="26" t="s">
         <v>887</v>
       </c>
@@ -21343,7 +21457,7 @@
       <c r="T272" s="33"/>
       <c r="U272" s="33"/>
     </row>
-    <row r="273" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="13.2">
       <c r="A273" s="26" t="s">
         <v>889</v>
       </c>
@@ -21392,7 +21506,7 @@
       <c r="T273" s="21"/>
       <c r="U273" s="21"/>
     </row>
-    <row r="274" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="13.2">
       <c r="A274" s="26" t="s">
         <v>271</v>
       </c>
@@ -21443,7 +21557,7 @@
       <c r="T274" s="21"/>
       <c r="U274" s="21"/>
     </row>
-    <row r="275" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" ht="13.2">
       <c r="A275" s="26" t="s">
         <v>229</v>
       </c>
@@ -21494,7 +21608,7 @@
       <c r="T275" s="21"/>
       <c r="U275" s="21"/>
     </row>
-    <row r="276" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="13.2">
       <c r="A276" s="26" t="s">
         <v>279</v>
       </c>
@@ -21545,7 +21659,7 @@
       <c r="T276" s="21"/>
       <c r="U276" s="21"/>
     </row>
-    <row r="277" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="13.2">
       <c r="A277" s="26" t="s">
         <v>230</v>
       </c>
@@ -21596,7 +21710,7 @@
       <c r="T277" s="21"/>
       <c r="U277" s="21"/>
     </row>
-    <row r="278" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" ht="13.2">
       <c r="A278" s="26" t="s">
         <v>231</v>
       </c>
@@ -21647,7 +21761,7 @@
       <c r="T278" s="21"/>
       <c r="U278" s="21"/>
     </row>
-    <row r="279" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="13.2">
       <c r="A279" s="26" t="s">
         <v>232</v>
       </c>
@@ -21700,7 +21814,7 @@
       <c r="T279" s="21"/>
       <c r="U279" s="21"/>
     </row>
-    <row r="280" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="13.2">
       <c r="A280" s="26" t="s">
         <v>276</v>
       </c>
@@ -21753,7 +21867,7 @@
       <c r="T280" s="33"/>
       <c r="U280" s="33"/>
     </row>
-    <row r="281" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" ht="13.2">
       <c r="A281" s="26" t="s">
         <v>283</v>
       </c>
@@ -21806,7 +21920,7 @@
       <c r="T281" s="21"/>
       <c r="U281" s="21"/>
     </row>
-    <row r="282" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" ht="13.2">
       <c r="A282" s="26" t="s">
         <v>353</v>
       </c>
@@ -21859,7 +21973,7 @@
       <c r="T282" s="21"/>
       <c r="U282" s="21"/>
     </row>
-    <row r="283" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="13.2">
       <c r="A283" s="26" t="s">
         <v>200</v>
       </c>
@@ -21912,7 +22026,7 @@
       <c r="T283" s="21"/>
       <c r="U283" s="21"/>
     </row>
-    <row r="284" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" ht="13.2">
       <c r="A284" s="26" t="s">
         <v>383</v>
       </c>
@@ -21965,7 +22079,7 @@
       <c r="T284" s="21"/>
       <c r="U284" s="21"/>
     </row>
-    <row r="285" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" ht="13.2">
       <c r="A285" s="26" t="s">
         <v>388</v>
       </c>
@@ -22016,7 +22130,7 @@
       <c r="T285" s="21"/>
       <c r="U285" s="21"/>
     </row>
-    <row r="286" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" ht="13.2">
       <c r="A286" s="26" t="s">
         <v>904</v>
       </c>
@@ -22067,7 +22181,7 @@
       <c r="T286" s="21"/>
       <c r="U286" s="21"/>
     </row>
-    <row r="287" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" ht="13.2">
       <c r="A287" s="26" t="s">
         <v>272</v>
       </c>
@@ -22118,7 +22232,7 @@
       <c r="T287" s="21"/>
       <c r="U287" s="21"/>
     </row>
-    <row r="288" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" ht="13.2">
       <c r="A288" s="26" t="s">
         <v>236</v>
       </c>
@@ -22169,7 +22283,7 @@
       <c r="T288" s="21"/>
       <c r="U288" s="21"/>
     </row>
-    <row r="289" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" ht="13.2">
       <c r="A289" s="26" t="s">
         <v>379</v>
       </c>
@@ -22220,7 +22334,7 @@
       <c r="T289" s="21"/>
       <c r="U289" s="21"/>
     </row>
-    <row r="290" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" ht="13.2">
       <c r="A290" s="26" t="s">
         <v>280</v>
       </c>
@@ -22271,7 +22385,7 @@
       <c r="T290" s="21"/>
       <c r="U290" s="21"/>
     </row>
-    <row r="291" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" ht="13.2">
       <c r="A291" s="26" t="s">
         <v>274</v>
       </c>
@@ -22322,7 +22436,7 @@
       <c r="T291" s="21"/>
       <c r="U291" s="21"/>
     </row>
-    <row r="292" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" ht="13.2">
       <c r="A292" s="26" t="s">
         <v>277</v>
       </c>
@@ -22373,7 +22487,7 @@
       <c r="T292" s="21"/>
       <c r="U292" s="21"/>
     </row>
-    <row r="293" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" ht="13.2">
       <c r="A293" s="26" t="s">
         <v>348</v>
       </c>
@@ -22424,7 +22538,7 @@
       <c r="T293" s="42"/>
       <c r="U293" s="42"/>
     </row>
-    <row r="294" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" ht="13.2">
       <c r="A294" s="26" t="s">
         <v>278</v>
       </c>
@@ -22475,7 +22589,7 @@
       <c r="T294" s="21"/>
       <c r="U294" s="21"/>
     </row>
-    <row r="295" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" ht="13.2">
       <c r="A295" s="26" t="s">
         <v>275</v>
       </c>
@@ -22524,7 +22638,7 @@
       <c r="T295" s="21"/>
       <c r="U295" s="21"/>
     </row>
-    <row r="296" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" ht="13.2">
       <c r="A296" s="26" t="s">
         <v>212</v>
       </c>
@@ -22575,7 +22689,7 @@
       <c r="T296" s="21"/>
       <c r="U296" s="21"/>
     </row>
-    <row r="297" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" ht="13.2">
       <c r="A297" s="26" t="s">
         <v>211</v>
       </c>
@@ -22624,7 +22738,7 @@
       <c r="T297" s="21"/>
       <c r="U297" s="21"/>
     </row>
-    <row r="298" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" ht="13.2">
       <c r="A298" s="26" t="s">
         <v>256</v>
       </c>
@@ -22673,7 +22787,7 @@
       <c r="T298" s="21"/>
       <c r="U298" s="21"/>
     </row>
-    <row r="299" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" ht="13.2">
       <c r="A299" s="26" t="s">
         <v>356</v>
       </c>
@@ -22724,7 +22838,7 @@
       <c r="T299" s="21"/>
       <c r="U299" s="21"/>
     </row>
-    <row r="300" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" ht="13.2">
       <c r="A300" s="26" t="s">
         <v>282</v>
       </c>
@@ -22773,7 +22887,7 @@
       <c r="T300" s="21"/>
       <c r="U300" s="21"/>
     </row>
-    <row r="301" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" ht="13.2">
       <c r="A301" s="26" t="s">
         <v>285</v>
       </c>
@@ -22822,7 +22936,7 @@
       <c r="T301" s="21"/>
       <c r="U301" s="21"/>
     </row>
-    <row r="302" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" ht="13.2">
       <c r="A302" s="26" t="s">
         <v>233</v>
       </c>
@@ -22871,7 +22985,7 @@
       <c r="T302" s="21"/>
       <c r="U302" s="21"/>
     </row>
-    <row r="303" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" ht="13.2">
       <c r="A303" s="26" t="s">
         <v>922</v>
       </c>
@@ -22922,7 +23036,7 @@
       <c r="T303" s="21"/>
       <c r="U303" s="21"/>
     </row>
-    <row r="304" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" ht="13.2">
       <c r="A304" s="26" t="s">
         <v>924</v>
       </c>
@@ -22971,7 +23085,7 @@
       <c r="T304" s="21"/>
       <c r="U304" s="21"/>
     </row>
-    <row r="305" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" ht="13.2">
       <c r="A305" s="26" t="s">
         <v>281</v>
       </c>
@@ -23020,7 +23134,7 @@
       <c r="T305" s="21"/>
       <c r="U305" s="21"/>
     </row>
-    <row r="306" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" ht="13.2">
       <c r="A306" s="26" t="s">
         <v>234</v>
       </c>
@@ -23069,7 +23183,7 @@
       <c r="T306" s="21"/>
       <c r="U306" s="21"/>
     </row>
-    <row r="307" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" ht="13.2">
       <c r="A307" s="26" t="s">
         <v>235</v>
       </c>
@@ -23118,7 +23232,7 @@
       <c r="T307" s="21"/>
       <c r="U307" s="21"/>
     </row>
-    <row r="308" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" ht="13.2">
       <c r="A308" s="26" t="s">
         <v>273</v>
       </c>
@@ -23167,7 +23281,7 @@
       <c r="T308" s="21"/>
       <c r="U308" s="21"/>
     </row>
-    <row r="309" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" ht="13.2">
       <c r="A309" s="26" t="s">
         <v>930</v>
       </c>
@@ -23216,7 +23330,7 @@
       <c r="T309" s="21"/>
       <c r="U309" s="21"/>
     </row>
-    <row r="310" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" ht="13.2">
       <c r="A310" s="26" t="s">
         <v>237</v>
       </c>
@@ -23265,7 +23379,7 @@
       <c r="T310" s="21"/>
       <c r="U310" s="21"/>
     </row>
-    <row r="311" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" ht="13.2">
       <c r="A311" s="26" t="s">
         <v>284</v>
       </c>
@@ -23314,7 +23428,7 @@
       <c r="T311" s="21"/>
       <c r="U311" s="21"/>
     </row>
-    <row r="312" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" ht="13.2">
       <c r="A312" s="26" t="s">
         <v>213</v>
       </c>
@@ -23363,7 +23477,7 @@
       <c r="T312" s="21"/>
       <c r="U312" s="21"/>
     </row>
-    <row r="313" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" ht="13.2">
       <c r="A313" s="26" t="s">
         <v>214</v>
       </c>
@@ -23412,7 +23526,7 @@
       <c r="T313" s="21"/>
       <c r="U313" s="21"/>
     </row>
-    <row r="314" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" ht="13.2">
       <c r="A314" s="26" t="s">
         <v>216</v>
       </c>
@@ -23461,7 +23575,7 @@
       <c r="T314" s="21"/>
       <c r="U314" s="21"/>
     </row>
-    <row r="315" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" ht="13.2">
       <c r="A315" s="26" t="s">
         <v>937</v>
       </c>
@@ -23510,7 +23624,7 @@
       <c r="T315" s="21"/>
       <c r="U315" s="21"/>
     </row>
-    <row r="316" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" ht="13.2">
       <c r="A316" s="26" t="s">
         <v>217</v>
       </c>
@@ -23559,7 +23673,7 @@
       <c r="T316" s="33"/>
       <c r="U316" s="33"/>
     </row>
-    <row r="317" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" ht="13.2">
       <c r="A317" s="26" t="s">
         <v>218</v>
       </c>
@@ -23608,7 +23722,7 @@
       <c r="T317" s="21"/>
       <c r="U317" s="21"/>
     </row>
-    <row r="318" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" ht="13.2">
       <c r="A318" s="26" t="s">
         <v>358</v>
       </c>
@@ -23657,7 +23771,7 @@
       <c r="T318" s="21"/>
       <c r="U318" s="21"/>
     </row>
-    <row r="319" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" ht="13.2">
       <c r="A319" s="26" t="s">
         <v>942</v>
       </c>
@@ -23706,7 +23820,7 @@
       <c r="T319" s="21"/>
       <c r="U319" s="21"/>
     </row>
-    <row r="320" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" ht="13.2">
       <c r="A320" s="26" t="s">
         <v>215</v>
       </c>
@@ -23759,7 +23873,7 @@
       <c r="T320" s="21"/>
       <c r="U320" s="21"/>
     </row>
-    <row r="321" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" ht="13.2">
       <c r="A321" s="26" t="s">
         <v>432</v>
       </c>
@@ -23810,7 +23924,7 @@
       <c r="T321" s="21"/>
       <c r="U321" s="21"/>
     </row>
-    <row r="322" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" ht="13.2">
       <c r="A322" s="26" t="s">
         <v>948</v>
       </c>
@@ -23861,7 +23975,7 @@
       <c r="T322" s="21"/>
       <c r="U322" s="21"/>
     </row>
-    <row r="323" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" ht="13.2">
       <c r="A323" s="26" t="s">
         <v>296</v>
       </c>
@@ -23914,7 +24028,7 @@
       <c r="T323" s="21"/>
       <c r="U323" s="21"/>
     </row>
-    <row r="324" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" ht="13.2">
       <c r="A324" s="26" t="s">
         <v>250</v>
       </c>
@@ -23967,7 +24081,7 @@
       <c r="T324" s="21"/>
       <c r="U324" s="21"/>
     </row>
-    <row r="325" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" ht="13.2">
       <c r="A325" s="26" t="s">
         <v>952</v>
       </c>
@@ -24020,7 +24134,7 @@
       <c r="T325" s="21"/>
       <c r="U325" s="21"/>
     </row>
-    <row r="326" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" ht="13.2">
       <c r="A326" s="26" t="s">
         <v>251</v>
       </c>
@@ -24073,7 +24187,7 @@
       <c r="T326" s="21"/>
       <c r="U326" s="21"/>
     </row>
-    <row r="327" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" ht="13.2">
       <c r="A327" s="26" t="s">
         <v>32</v>
       </c>
@@ -24126,7 +24240,7 @@
       <c r="T327" s="21"/>
       <c r="U327" s="21"/>
     </row>
-    <row r="328" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" ht="13.2">
       <c r="A328" s="26" t="s">
         <v>564</v>
       </c>
@@ -24179,7 +24293,7 @@
       <c r="T328" s="21"/>
       <c r="U328" s="21"/>
     </row>
-    <row r="329" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" ht="13.2">
       <c r="A329" s="26" t="s">
         <v>295</v>
       </c>
@@ -24230,7 +24344,7 @@
       <c r="T329" s="21"/>
       <c r="U329" s="21"/>
     </row>
-    <row r="330" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" ht="13.2">
       <c r="A330" s="26" t="s">
         <v>957</v>
       </c>
@@ -24281,7 +24395,7 @@
       <c r="T330" s="21"/>
       <c r="U330" s="21"/>
     </row>
-    <row r="331" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" ht="13.2">
       <c r="A331" s="26" t="s">
         <v>584</v>
       </c>
@@ -24334,7 +24448,7 @@
       <c r="T331" s="33"/>
       <c r="U331" s="33"/>
     </row>
-    <row r="332" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" ht="13.2">
       <c r="A332" s="26" t="s">
         <v>585</v>
       </c>
@@ -24385,7 +24499,7 @@
       <c r="T332" s="21"/>
       <c r="U332" s="21"/>
     </row>
-    <row r="333" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" ht="13.2">
       <c r="A333" s="26" t="s">
         <v>299</v>
       </c>
@@ -24438,7 +24552,7 @@
       <c r="T333" s="21"/>
       <c r="U333" s="21"/>
     </row>
-    <row r="334" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" ht="13.2">
       <c r="A334" s="26" t="s">
         <v>254</v>
       </c>
@@ -24491,7 +24605,7 @@
       <c r="T334" s="21"/>
       <c r="U334" s="21"/>
     </row>
-    <row r="335" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" ht="13.2">
       <c r="A335" s="26" t="s">
         <v>963</v>
       </c>
@@ -24544,7 +24658,7 @@
       <c r="T335" s="21"/>
       <c r="U335" s="21"/>
     </row>
-    <row r="336" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" ht="13.2">
       <c r="A336" s="26" t="s">
         <v>288</v>
       </c>
@@ -24597,7 +24711,7 @@
       <c r="T336" s="21"/>
       <c r="U336" s="21"/>
     </row>
-    <row r="337" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" ht="13.2">
       <c r="A337" s="26" t="s">
         <v>606</v>
       </c>
@@ -24654,7 +24768,7 @@
       <c r="T337" s="21"/>
       <c r="U337" s="21"/>
     </row>
-    <row r="338" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" ht="13.2">
       <c r="A338" s="26" t="s">
         <v>969</v>
       </c>
@@ -24707,7 +24821,7 @@
       <c r="T338" s="21"/>
       <c r="U338" s="21"/>
     </row>
-    <row r="339" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" ht="13.2">
       <c r="A339" s="26" t="s">
         <v>252</v>
       </c>
@@ -24760,7 +24874,7 @@
       <c r="T339" s="33"/>
       <c r="U339" s="33"/>
     </row>
-    <row r="340" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" ht="13.2">
       <c r="A340" s="26" t="s">
         <v>972</v>
       </c>
@@ -24811,7 +24925,7 @@
       <c r="T340" s="21"/>
       <c r="U340" s="21"/>
     </row>
-    <row r="341" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" ht="13.2">
       <c r="A341" s="26" t="s">
         <v>253</v>
       </c>
@@ -24866,7 +24980,7 @@
       <c r="T341" s="21"/>
       <c r="U341" s="21"/>
     </row>
-    <row r="342" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" ht="13.2">
       <c r="A342" s="26" t="s">
         <v>195</v>
       </c>
@@ -24919,7 +25033,7 @@
       <c r="T342" s="21"/>
       <c r="U342" s="21"/>
     </row>
-    <row r="343" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" ht="13.2">
       <c r="A343" s="26" t="s">
         <v>287</v>
       </c>
@@ -24970,7 +25084,7 @@
       <c r="T343" s="21"/>
       <c r="U343" s="21"/>
     </row>
-    <row r="344" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" ht="13.2">
       <c r="A344" s="26" t="s">
         <v>976</v>
       </c>
@@ -25023,7 +25137,7 @@
       <c r="T344" s="33"/>
       <c r="U344" s="21"/>
     </row>
-    <row r="345" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" ht="13.2">
       <c r="A345" s="26" t="s">
         <v>978</v>
       </c>
@@ -25074,7 +25188,7 @@
       <c r="T345" s="21"/>
       <c r="U345" s="21"/>
     </row>
-    <row r="346" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" ht="13.2">
       <c r="A346" s="26" t="s">
         <v>289</v>
       </c>
@@ -25125,7 +25239,7 @@
       <c r="T346" s="21"/>
       <c r="U346" s="21"/>
     </row>
-    <row r="347" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" ht="13.2">
       <c r="A347" s="26" t="s">
         <v>981</v>
       </c>
@@ -25176,7 +25290,7 @@
       <c r="T347" s="21"/>
       <c r="U347" s="33"/>
     </row>
-    <row r="348" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" ht="13.2">
       <c r="A348" s="26" t="s">
         <v>294</v>
       </c>
@@ -25227,7 +25341,7 @@
       <c r="T348" s="21"/>
       <c r="U348" s="21"/>
     </row>
-    <row r="349" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" ht="13.2">
       <c r="A349" s="26" t="s">
         <v>291</v>
       </c>
@@ -25278,7 +25392,7 @@
       <c r="T349" s="21"/>
       <c r="U349" s="21"/>
     </row>
-    <row r="350" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" ht="13.2">
       <c r="A350" s="26" t="s">
         <v>286</v>
       </c>
@@ -25329,7 +25443,7 @@
       <c r="T350" s="21"/>
       <c r="U350" s="21"/>
     </row>
-    <row r="351" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" ht="13.2">
       <c r="A351" s="26" t="s">
         <v>624</v>
       </c>
@@ -25380,7 +25494,7 @@
       <c r="T351" s="21"/>
       <c r="U351" s="21"/>
     </row>
-    <row r="352" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" ht="13.2">
       <c r="A352" s="26" t="s">
         <v>987</v>
       </c>
@@ -25431,7 +25545,7 @@
       <c r="T352" s="21"/>
       <c r="U352" s="21"/>
     </row>
-    <row r="353" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" ht="13.2">
       <c r="A353" s="26" t="s">
         <v>520</v>
       </c>
@@ -25482,7 +25596,7 @@
       <c r="T353" s="21"/>
       <c r="U353" s="21"/>
     </row>
-    <row r="354" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="13.2">
       <c r="A354" s="26" t="s">
         <v>290</v>
       </c>
@@ -25533,7 +25647,7 @@
       <c r="T354" s="21"/>
       <c r="U354" s="21"/>
     </row>
-    <row r="355" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="13.2">
       <c r="A355" s="26" t="s">
         <v>991</v>
       </c>
@@ -25586,7 +25700,7 @@
       <c r="T355" s="21"/>
       <c r="U355" s="21"/>
     </row>
-    <row r="356" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" ht="13.2">
       <c r="A356" s="26" t="s">
         <v>293</v>
       </c>
@@ -25639,7 +25753,7 @@
       <c r="T356" s="45"/>
       <c r="U356" s="45"/>
     </row>
-    <row r="357" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" ht="13.2">
       <c r="A357" s="26" t="s">
         <v>993</v>
       </c>
@@ -25690,7 +25804,7 @@
       <c r="T357" s="21"/>
       <c r="U357" s="21"/>
     </row>
-    <row r="358" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" ht="13.2">
       <c r="A358" s="26" t="s">
         <v>387</v>
       </c>
@@ -25745,7 +25859,7 @@
       <c r="T358" s="33"/>
       <c r="U358" s="33"/>
     </row>
-    <row r="359" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" ht="13.2">
       <c r="A359" s="26" t="s">
         <v>199</v>
       </c>
@@ -25798,7 +25912,7 @@
       <c r="T359" s="21"/>
       <c r="U359" s="21"/>
     </row>
-    <row r="360" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" ht="13.2">
       <c r="A360" s="26" t="s">
         <v>418</v>
       </c>
@@ -25849,7 +25963,7 @@
       <c r="T360" s="21"/>
       <c r="U360" s="21"/>
     </row>
-    <row r="361" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" ht="13.2">
       <c r="A361" s="26" t="s">
         <v>430</v>
       </c>
@@ -25900,7 +26014,7 @@
       <c r="T361" s="21"/>
       <c r="U361" s="21"/>
     </row>
-    <row r="362" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" ht="13.2">
       <c r="A362" s="26" t="s">
         <v>355</v>
       </c>
@@ -25953,7 +26067,7 @@
       <c r="T362" s="21"/>
       <c r="U362" s="21"/>
     </row>
-    <row r="363" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" ht="13.2">
       <c r="A363" s="26" t="s">
         <v>307</v>
       </c>
@@ -26006,7 +26120,7 @@
       <c r="T363" s="21"/>
       <c r="U363" s="21"/>
     </row>
-    <row r="364" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" ht="13.2">
       <c r="A364" s="26" t="s">
         <v>310</v>
       </c>
@@ -26059,7 +26173,7 @@
       <c r="T364" s="21"/>
       <c r="U364" s="21"/>
     </row>
-    <row r="365" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" ht="13.2">
       <c r="A365" s="26" t="s">
         <v>1006</v>
       </c>
@@ -26110,7 +26224,7 @@
       <c r="T365" s="33"/>
       <c r="U365" s="33"/>
     </row>
-    <row r="366" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" ht="13.2">
       <c r="A366" s="26" t="s">
         <v>304</v>
       </c>
@@ -26161,7 +26275,7 @@
       <c r="T366" s="21"/>
       <c r="U366" s="21"/>
     </row>
-    <row r="367" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" ht="13.2">
       <c r="A367" s="26" t="s">
         <v>305</v>
       </c>
@@ -26216,7 +26330,7 @@
       <c r="T367" s="21"/>
       <c r="U367" s="21"/>
     </row>
-    <row r="368" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" ht="13.2">
       <c r="A368" s="26" t="s">
         <v>480</v>
       </c>
@@ -26267,7 +26381,7 @@
       <c r="T368" s="21"/>
       <c r="U368" s="21"/>
     </row>
-    <row r="369" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" ht="13.2">
       <c r="A369" s="26" t="s">
         <v>302</v>
       </c>
@@ -26318,7 +26432,7 @@
       <c r="T369" s="21"/>
       <c r="U369" s="21"/>
     </row>
-    <row r="370" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" ht="13.2">
       <c r="A370" s="26" t="s">
         <v>360</v>
       </c>
@@ -26369,7 +26483,7 @@
       <c r="T370" s="21"/>
       <c r="U370" s="21"/>
     </row>
-    <row r="371" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" ht="13.2">
       <c r="A371" s="26" t="s">
         <v>1013</v>
       </c>
@@ -26420,7 +26534,7 @@
       <c r="T371" s="40"/>
       <c r="U371" s="40"/>
     </row>
-    <row r="372" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" ht="13.2">
       <c r="A372" s="26" t="s">
         <v>1015</v>
       </c>
@@ -26473,7 +26587,7 @@
       <c r="T372" s="21"/>
       <c r="U372" s="21"/>
     </row>
-    <row r="373" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" ht="13.2">
       <c r="A373" s="26" t="s">
         <v>352</v>
       </c>
@@ -26526,7 +26640,7 @@
       <c r="T373" s="21"/>
       <c r="U373" s="21"/>
     </row>
-    <row r="374" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" ht="13.2">
       <c r="A374" s="26" t="s">
         <v>347</v>
       </c>
@@ -26579,7 +26693,7 @@
       <c r="T374" s="21"/>
       <c r="U374" s="21"/>
     </row>
-    <row r="375" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" ht="13.2">
       <c r="A375" s="26" t="s">
         <v>499</v>
       </c>
@@ -26634,7 +26748,7 @@
       <c r="T375" s="21"/>
       <c r="U375" s="21"/>
     </row>
-    <row r="376" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" ht="13.2">
       <c r="A376" s="26" t="s">
         <v>1020</v>
       </c>
@@ -26685,7 +26799,7 @@
       <c r="T376" s="21"/>
       <c r="U376" s="21"/>
     </row>
-    <row r="377" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" ht="13.2">
       <c r="A377" s="26" t="s">
         <v>1022</v>
       </c>
@@ -26738,7 +26852,7 @@
       <c r="T377" s="21"/>
       <c r="U377" s="21"/>
     </row>
-    <row r="378" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" ht="13.2">
       <c r="A378" s="26" t="s">
         <v>1024</v>
       </c>
@@ -26789,7 +26903,7 @@
       <c r="T378" s="21"/>
       <c r="U378" s="21"/>
     </row>
-    <row r="379" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" ht="13.2">
       <c r="A379" s="26" t="s">
         <v>583</v>
       </c>
@@ -26844,7 +26958,7 @@
       <c r="T379" s="21"/>
       <c r="U379" s="21"/>
     </row>
-    <row r="380" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" ht="13.2">
       <c r="A380" s="26" t="s">
         <v>303</v>
       </c>
@@ -26897,7 +27011,7 @@
       <c r="T380" s="21"/>
       <c r="U380" s="21"/>
     </row>
-    <row r="381" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" ht="13.2">
       <c r="A381" s="26" t="s">
         <v>1028</v>
       </c>
@@ -26952,7 +27066,7 @@
       <c r="T381" s="21"/>
       <c r="U381" s="21"/>
     </row>
-    <row r="382" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" ht="13.2">
       <c r="A382" s="26" t="s">
         <v>1030</v>
       </c>
@@ -27003,7 +27117,7 @@
       <c r="T382" s="21"/>
       <c r="U382" s="21"/>
     </row>
-    <row r="383" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" ht="13.2">
       <c r="A383" s="26" t="s">
         <v>1032</v>
       </c>
@@ -27054,7 +27168,7 @@
       <c r="T383" s="21"/>
       <c r="U383" s="21"/>
     </row>
-    <row r="384" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" ht="13.2">
       <c r="A384" s="26" t="s">
         <v>1034</v>
       </c>
@@ -27105,7 +27219,7 @@
       <c r="T384" s="21"/>
       <c r="U384" s="21"/>
     </row>
-    <row r="385" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" ht="13.2">
       <c r="A385" s="26" t="s">
         <v>311</v>
       </c>
@@ -27160,7 +27274,7 @@
       <c r="T385" s="21"/>
       <c r="U385" s="21"/>
     </row>
-    <row r="386" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" ht="13.2">
       <c r="A386" s="26" t="s">
         <v>1037</v>
       </c>
@@ -27211,7 +27325,7 @@
       <c r="T386" s="21"/>
       <c r="U386" s="21"/>
     </row>
-    <row r="387" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" ht="13.2">
       <c r="A387" s="26" t="s">
         <v>536</v>
       </c>
@@ -27264,7 +27378,7 @@
       <c r="T387" s="21"/>
       <c r="U387" s="21"/>
     </row>
-    <row r="388" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" ht="13.2">
       <c r="A388" s="26" t="s">
         <v>1040</v>
       </c>
@@ -27315,7 +27429,7 @@
       <c r="T388" s="21"/>
       <c r="U388" s="21"/>
     </row>
-    <row r="389" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" ht="13.2">
       <c r="A389" s="26" t="s">
         <v>1042</v>
       </c>
@@ -27366,7 +27480,7 @@
       <c r="T389" s="21"/>
       <c r="U389" s="21"/>
     </row>
-    <row r="390" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" ht="13.2">
       <c r="A390" s="26" t="s">
         <v>301</v>
       </c>
@@ -27417,7 +27531,7 @@
       <c r="T390" s="21"/>
       <c r="U390" s="21"/>
     </row>
-    <row r="391" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" ht="13.2">
       <c r="A391" s="26" t="s">
         <v>1044</v>
       </c>
@@ -27468,7 +27582,7 @@
       <c r="T391" s="21"/>
       <c r="U391" s="21"/>
     </row>
-    <row r="392" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" ht="13.2">
       <c r="A392" s="26" t="s">
         <v>1046</v>
       </c>
@@ -27519,7 +27633,7 @@
       <c r="T392" s="21"/>
       <c r="U392" s="21"/>
     </row>
-    <row r="393" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" ht="13.2">
       <c r="A393" s="26" t="s">
         <v>1048</v>
       </c>
@@ -27570,7 +27684,7 @@
       <c r="T393" s="21"/>
       <c r="U393" s="21"/>
     </row>
-    <row r="394" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" ht="13.2">
       <c r="A394" s="26" t="s">
         <v>1050</v>
       </c>
@@ -27621,7 +27735,7 @@
       <c r="T394" s="21"/>
       <c r="U394" s="21"/>
     </row>
-    <row r="395" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" ht="13.2">
       <c r="A395" s="26" t="s">
         <v>519</v>
       </c>
@@ -27672,7 +27786,7 @@
       <c r="T395" s="21"/>
       <c r="U395" s="21"/>
     </row>
-    <row r="396" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" ht="13.2">
       <c r="A396" s="26" t="s">
         <v>563</v>
       </c>
@@ -27723,7 +27837,7 @@
       <c r="T396" s="21"/>
       <c r="U396" s="21"/>
     </row>
-    <row r="397" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" ht="13.2">
       <c r="A397" s="26" t="s">
         <v>549</v>
       </c>
@@ -27774,7 +27888,7 @@
       <c r="T397" s="33"/>
       <c r="U397" s="33"/>
     </row>
-    <row r="398" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" ht="13.2">
       <c r="A398" s="26" t="s">
         <v>1055</v>
       </c>
@@ -27825,7 +27939,7 @@
       <c r="T398" s="21"/>
       <c r="U398" s="21"/>
     </row>
-    <row r="399" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="13.2">
       <c r="A399" s="26" t="s">
         <v>1057</v>
       </c>
@@ -27876,7 +27990,7 @@
       <c r="T399" s="21"/>
       <c r="U399" s="21"/>
     </row>
-    <row r="400" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" ht="13.2">
       <c r="A400" s="26" t="s">
         <v>398</v>
       </c>
@@ -27927,7 +28041,7 @@
       <c r="T400" s="21"/>
       <c r="U400" s="21"/>
     </row>
-    <row r="401" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="13.2">
       <c r="A401" s="26" t="s">
         <v>1060</v>
       </c>
@@ -27980,7 +28094,7 @@
       <c r="T401" s="21"/>
       <c r="U401" s="21"/>
     </row>
-    <row r="402" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="13.2">
       <c r="A402" s="26" t="s">
         <v>309</v>
       </c>
@@ -28031,7 +28145,7 @@
       <c r="T402" s="21"/>
       <c r="U402" s="21"/>
     </row>
-    <row r="403" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" ht="13.2">
       <c r="A403" s="26" t="s">
         <v>1063</v>
       </c>
@@ -28086,7 +28200,7 @@
       <c r="T403" s="33"/>
       <c r="U403" s="33"/>
     </row>
-    <row r="404" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" ht="13.2">
       <c r="A404" s="26" t="s">
         <v>1065</v>
       </c>
@@ -28137,7 +28251,7 @@
       <c r="T404" s="33"/>
       <c r="U404" s="21"/>
     </row>
-    <row r="405" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" ht="13.2">
       <c r="A405" s="26" t="s">
         <v>1067</v>
       </c>
@@ -28190,7 +28304,7 @@
       <c r="T405" s="21"/>
       <c r="U405" s="21"/>
     </row>
-    <row r="406" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" ht="13.2">
       <c r="A406" s="26" t="s">
         <v>202</v>
       </c>
@@ -28241,7 +28355,7 @@
       <c r="T406" s="21"/>
       <c r="U406" s="21"/>
     </row>
-    <row r="407" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" ht="13.2">
       <c r="A407" s="26" t="s">
         <v>308</v>
       </c>
@@ -28292,7 +28406,7 @@
       <c r="T407" s="46"/>
       <c r="U407" s="46"/>
     </row>
-    <row r="408" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" ht="13.2">
       <c r="A408" s="26" t="s">
         <v>363</v>
       </c>
@@ -28343,7 +28457,7 @@
       <c r="T408" s="21"/>
       <c r="U408" s="21"/>
     </row>
-    <row r="409" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" ht="13.2">
       <c r="A409" s="26" t="s">
         <v>604</v>
       </c>
@@ -28394,7 +28508,7 @@
       <c r="T409" s="21"/>
       <c r="U409" s="21"/>
     </row>
-    <row r="410" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" ht="13.2">
       <c r="A410" s="26" t="s">
         <v>350</v>
       </c>
@@ -28447,7 +28561,7 @@
       <c r="T410" s="33"/>
       <c r="U410" s="21"/>
     </row>
-    <row r="411" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" ht="13.2">
       <c r="A411" s="26" t="s">
         <v>1074</v>
       </c>
@@ -28500,7 +28614,7 @@
       <c r="T411" s="33"/>
       <c r="U411" s="21"/>
     </row>
-    <row r="412" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" ht="13.2">
       <c r="A412" s="26" t="s">
         <v>1076</v>
       </c>
@@ -28551,7 +28665,7 @@
       <c r="T412" s="33"/>
       <c r="U412" s="21"/>
     </row>
-    <row r="413" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="13.2">
       <c r="A413" s="26" t="s">
         <v>359</v>
       </c>
@@ -28602,7 +28716,7 @@
       <c r="T413" s="21"/>
       <c r="U413" s="21"/>
     </row>
-    <row r="414" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="13.2">
       <c r="A414" s="26" t="s">
         <v>1079</v>
       </c>
@@ -28653,7 +28767,7 @@
       <c r="T414" s="21"/>
       <c r="U414" s="21"/>
     </row>
-    <row r="415" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" ht="13.2">
       <c r="A415" s="26" t="s">
         <v>306</v>
       </c>
@@ -28704,7 +28818,7 @@
       <c r="T415" s="21"/>
       <c r="U415" s="21"/>
     </row>
-    <row r="416" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" ht="13.2">
       <c r="A416" s="26" t="s">
         <v>1082</v>
       </c>
@@ -28759,7 +28873,7 @@
       <c r="T416" s="21"/>
       <c r="U416" s="21"/>
     </row>
-    <row r="417" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="13.2">
       <c r="A417" s="26" t="s">
         <v>1084</v>
       </c>
@@ -28810,7 +28924,7 @@
       <c r="T417" s="33"/>
       <c r="U417" s="21"/>
     </row>
-    <row r="418" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="13.2">
       <c r="A418" s="26" t="s">
         <v>357</v>
       </c>
@@ -28861,7 +28975,7 @@
       <c r="T418" s="21"/>
       <c r="U418" s="21"/>
     </row>
-    <row r="419" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="13.2">
       <c r="A419" s="26" t="s">
         <v>1087</v>
       </c>
@@ -28914,7 +29028,7 @@
       <c r="T419" s="21"/>
       <c r="U419" s="21"/>
     </row>
-    <row r="420" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="13.2">
       <c r="A420" s="26" t="s">
         <v>1089</v>
       </c>
@@ -28965,7 +29079,7 @@
       <c r="T420" s="21"/>
       <c r="U420" s="21"/>
     </row>
-    <row r="421" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" ht="13.2">
       <c r="A421" s="26" t="s">
         <v>1091</v>
       </c>
@@ -29018,7 +29132,7 @@
       <c r="T421" s="21"/>
       <c r="U421" s="21"/>
     </row>
-    <row r="422" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" ht="13.2">
       <c r="A422" s="26" t="s">
         <v>1093</v>
       </c>
@@ -29069,7 +29183,7 @@
       <c r="T422" s="21"/>
       <c r="U422" s="21"/>
     </row>
-    <row r="423" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" ht="13.2">
       <c r="A423" s="26" t="s">
         <v>1095</v>
       </c>
@@ -29124,7 +29238,7 @@
       <c r="T423" s="21"/>
       <c r="U423" s="21"/>
     </row>
-    <row r="424" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" ht="13.2">
       <c r="A424" s="26" t="s">
         <v>1097</v>
       </c>
@@ -29177,7 +29291,7 @@
       <c r="T424" s="21"/>
       <c r="U424" s="21"/>
     </row>
-    <row r="425" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" ht="13.2">
       <c r="A425" s="26" t="s">
         <v>1099</v>
       </c>
@@ -29230,7 +29344,7 @@
       <c r="T425" s="21"/>
       <c r="U425" s="21"/>
     </row>
-    <row r="426" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" ht="13.2">
       <c r="A426" s="26" t="s">
         <v>1101</v>
       </c>
@@ -29283,7 +29397,7 @@
       <c r="T426" s="33"/>
       <c r="U426" s="21"/>
     </row>
-    <row r="427" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" ht="13.2">
       <c r="A427" s="26" t="s">
         <v>1103</v>
       </c>
@@ -29334,7 +29448,7 @@
       <c r="T427" s="21"/>
       <c r="U427" s="21"/>
     </row>
-    <row r="428" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" ht="13.2">
       <c r="A428" s="26" t="s">
         <v>1105</v>
       </c>
@@ -29385,7 +29499,7 @@
       <c r="T428" s="21"/>
       <c r="U428" s="33"/>
     </row>
-    <row r="429" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" ht="13.2">
       <c r="A429" s="26" t="s">
         <v>1107</v>
       </c>
@@ -29436,7 +29550,7 @@
       <c r="T429" s="21"/>
       <c r="U429" s="21"/>
     </row>
-    <row r="430" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" ht="13.2">
       <c r="A430" s="26" t="s">
         <v>1109</v>
       </c>
@@ -29489,7 +29603,7 @@
       <c r="T430" s="21"/>
       <c r="U430" s="21"/>
     </row>
-    <row r="431" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" ht="13.2">
       <c r="A431" s="26" t="s">
         <v>351</v>
       </c>
@@ -29540,7 +29654,7 @@
       <c r="T431" s="48"/>
       <c r="U431" s="48"/>
     </row>
-    <row r="432" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" ht="13.2">
       <c r="A432" s="26" t="s">
         <v>1112</v>
       </c>
@@ -29591,7 +29705,7 @@
       <c r="T432" s="21"/>
       <c r="U432" s="21"/>
     </row>
-    <row r="433" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" ht="13.2">
       <c r="A433" s="26" t="s">
         <v>1114</v>
       </c>
@@ -29642,7 +29756,7 @@
       <c r="T433" s="33"/>
       <c r="U433" s="21"/>
     </row>
-    <row r="434" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" ht="13.2">
       <c r="A434" s="26" t="s">
         <v>1116</v>
       </c>
@@ -29693,7 +29807,7 @@
       <c r="T434" s="21"/>
       <c r="U434" s="21"/>
     </row>
-    <row r="435" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" ht="13.2">
       <c r="A435" s="26" t="s">
         <v>1118</v>
       </c>
@@ -29744,7 +29858,7 @@
       <c r="T435" s="21"/>
       <c r="U435" s="21"/>
     </row>
-    <row r="436" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" ht="13.2">
       <c r="A436" s="26" t="s">
         <v>1120</v>
       </c>
@@ -29797,7 +29911,7 @@
       <c r="T436" s="21"/>
       <c r="U436" s="21"/>
     </row>
-    <row r="437" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" ht="13.2">
       <c r="A437" s="26" t="s">
         <v>550</v>
       </c>
@@ -29848,7 +29962,7 @@
       <c r="T437" s="33"/>
       <c r="U437" s="21"/>
     </row>
-    <row r="438" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" ht="13.2">
       <c r="A438" s="26" t="s">
         <v>312</v>
       </c>
@@ -29899,7 +30013,7 @@
       <c r="T438" s="21"/>
       <c r="U438" s="21"/>
     </row>
-    <row r="439" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" ht="13.2">
       <c r="A439" s="26" t="s">
         <v>565</v>
       </c>
@@ -29950,7 +30064,7 @@
       <c r="T439" s="21"/>
       <c r="U439" s="21"/>
     </row>
-    <row r="440" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" ht="13.2">
       <c r="A440" s="26" t="s">
         <v>1126</v>
       </c>
@@ -30001,7 +30115,7 @@
       <c r="T440" s="21"/>
       <c r="U440" s="21"/>
     </row>
-    <row r="441" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" ht="13.2">
       <c r="A441" s="26" t="s">
         <v>314</v>
       </c>
@@ -30052,7 +30166,7 @@
       <c r="T441" s="21"/>
       <c r="U441" s="21"/>
     </row>
-    <row r="442" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" ht="13.2">
       <c r="A442" s="26" t="s">
         <v>246</v>
       </c>
@@ -30103,7 +30217,7 @@
       <c r="T442" s="21"/>
       <c r="U442" s="21"/>
     </row>
-    <row r="443" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" ht="13.2">
       <c r="A443" s="26" t="s">
         <v>1130</v>
       </c>
@@ -30154,7 +30268,7 @@
       <c r="T443" s="21"/>
       <c r="U443" s="21"/>
     </row>
-    <row r="444" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" ht="13.2">
       <c r="A444" s="26" t="s">
         <v>313</v>
       </c>
@@ -30205,7 +30319,7 @@
       <c r="T444" s="21"/>
       <c r="U444" s="21"/>
     </row>
-    <row r="445" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" ht="13.2">
       <c r="A445" s="26" t="s">
         <v>1133</v>
       </c>
@@ -30256,7 +30370,7 @@
       <c r="T445" s="21"/>
       <c r="U445" s="21"/>
     </row>
-    <row r="446" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" ht="13.2">
       <c r="A446" s="26" t="s">
         <v>245</v>
       </c>
@@ -30307,7 +30421,7 @@
       <c r="T446" s="21"/>
       <c r="U446" s="21"/>
     </row>
-    <row r="447" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" ht="13.2">
       <c r="A447" s="26" t="s">
         <v>1136</v>
       </c>
@@ -30360,7 +30474,7 @@
       <c r="T447" s="21"/>
       <c r="U447" s="21"/>
     </row>
-    <row r="448" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" ht="13.2">
       <c r="A448" s="26" t="s">
         <v>247</v>
       </c>
@@ -30413,7 +30527,7 @@
       <c r="T448" s="33"/>
       <c r="U448" s="21"/>
     </row>
-    <row r="449" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" ht="13.2">
       <c r="A449" s="26" t="s">
         <v>605</v>
       </c>
@@ -30464,7 +30578,7 @@
       <c r="T449" s="21"/>
       <c r="U449" s="21"/>
     </row>
-    <row r="450" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" ht="13.2">
       <c r="A450" s="26" t="s">
         <v>248</v>
       </c>
@@ -30515,7 +30629,7 @@
       <c r="T450" s="21"/>
       <c r="U450" s="21"/>
     </row>
-    <row r="451" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" ht="13.2">
       <c r="A451" s="26" t="s">
         <v>1141</v>
       </c>
@@ -30566,7 +30680,7 @@
       <c r="T451" s="33"/>
       <c r="U451" s="21"/>
     </row>
-    <row r="452" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" ht="13.2">
       <c r="A452" s="26" t="s">
         <v>315</v>
       </c>
@@ -30615,7 +30729,7 @@
       <c r="T452" s="33"/>
       <c r="U452" s="21"/>
     </row>
-    <row r="453" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" ht="13.2">
       <c r="A453" s="26" t="s">
         <v>374</v>
       </c>
@@ -30668,7 +30782,7 @@
       <c r="T453" s="21"/>
       <c r="U453" s="21"/>
     </row>
-    <row r="454" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" ht="13.2">
       <c r="A454" s="26" t="s">
         <v>316</v>
       </c>
@@ -30723,7 +30837,7 @@
       <c r="T454" s="21"/>
       <c r="U454" s="21"/>
     </row>
-    <row r="455" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" ht="13.2">
       <c r="A455" s="26" t="s">
         <v>223</v>
       </c>
@@ -30778,7 +30892,7 @@
       <c r="T455" s="21"/>
       <c r="U455" s="21"/>
     </row>
-    <row r="456" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" ht="13.2">
       <c r="A456" s="26" t="s">
         <v>317</v>
       </c>
@@ -30833,7 +30947,7 @@
       <c r="T456" s="21"/>
       <c r="U456" s="21"/>
     </row>
-    <row r="457" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" ht="13.2">
       <c r="A457" s="26" t="s">
         <v>1150</v>
       </c>
@@ -30884,7 +30998,7 @@
       <c r="T457" s="21"/>
       <c r="U457" s="21"/>
     </row>
-    <row r="458" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" ht="13.2">
       <c r="A458" s="26" t="s">
         <v>378</v>
       </c>
@@ -30937,7 +31051,7 @@
       <c r="T458" s="21"/>
       <c r="U458" s="21"/>
     </row>
-    <row r="459" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" ht="13.2">
       <c r="A459" s="26" t="s">
         <v>481</v>
       </c>
@@ -30990,7 +31104,7 @@
       <c r="T459" s="21"/>
       <c r="U459" s="21"/>
     </row>
-    <row r="460" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" ht="13.2">
       <c r="A460" s="26" t="s">
         <v>1154</v>
       </c>
@@ -31043,7 +31157,7 @@
       <c r="T460" s="21"/>
       <c r="U460" s="21"/>
     </row>
-    <row r="461" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" ht="13.2">
       <c r="A461" s="26" t="s">
         <v>1156</v>
       </c>
@@ -31096,7 +31210,7 @@
       <c r="T461" s="21"/>
       <c r="U461" s="21"/>
     </row>
-    <row r="462" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" ht="13.2">
       <c r="A462" s="26" t="s">
         <v>1158</v>
       </c>
@@ -31149,7 +31263,7 @@
       <c r="T462" s="21"/>
       <c r="U462" s="21"/>
     </row>
-    <row r="463" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" ht="13.2">
       <c r="A463" s="26" t="s">
         <v>224</v>
       </c>
@@ -31202,7 +31316,7 @@
       <c r="T463" s="21"/>
       <c r="U463" s="21"/>
     </row>
-    <row r="464" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" ht="13.2">
       <c r="A464" s="26" t="s">
         <v>1161</v>
       </c>
@@ -31257,7 +31371,7 @@
       <c r="T464" s="21"/>
       <c r="U464" s="21"/>
     </row>
-    <row r="465" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" ht="13.2">
       <c r="A465" s="26" t="s">
         <v>227</v>
       </c>
@@ -31312,7 +31426,7 @@
       <c r="T465" s="33"/>
       <c r="U465" s="33"/>
     </row>
-    <row r="466" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" ht="13.2">
       <c r="A466" s="26" t="s">
         <v>225</v>
       </c>
@@ -31367,7 +31481,7 @@
       <c r="T466" s="21"/>
       <c r="U466" s="21"/>
     </row>
-    <row r="467" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" ht="13.2">
       <c r="A467" s="26" t="s">
         <v>1165</v>
       </c>
@@ -31422,7 +31536,7 @@
       <c r="T467" s="21"/>
       <c r="U467" s="21"/>
     </row>
-    <row r="468" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" ht="13.2">
       <c r="A468" s="26" t="s">
         <v>226</v>
       </c>
@@ -31477,7 +31591,7 @@
       <c r="T468" s="21"/>
       <c r="U468" s="21"/>
     </row>
-    <row r="469" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" ht="13.2">
       <c r="A469" s="26" t="s">
         <v>500</v>
       </c>
@@ -31530,7 +31644,7 @@
       <c r="T469" s="21"/>
       <c r="U469" s="21"/>
     </row>
-    <row r="470" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" ht="13.2">
       <c r="A470" s="26" t="s">
         <v>318</v>
       </c>
@@ -31583,7 +31697,7 @@
       <c r="T470" s="21"/>
       <c r="U470" s="21"/>
     </row>
-    <row r="471" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" ht="13.2">
       <c r="A471" s="26" t="s">
         <v>1170</v>
       </c>
@@ -31638,7 +31752,7 @@
       <c r="T471" s="21"/>
       <c r="U471" s="21"/>
     </row>
-    <row r="472" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" ht="13.2">
       <c r="A472" s="26" t="s">
         <v>1172</v>
       </c>
@@ -31691,7 +31805,7 @@
       <c r="T472" s="33"/>
       <c r="U472" s="33"/>
     </row>
-    <row r="473" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" ht="13.2">
       <c r="A473" s="26" t="s">
         <v>397</v>
       </c>
@@ -31744,7 +31858,7 @@
       <c r="T473" s="21"/>
       <c r="U473" s="21"/>
     </row>
-    <row r="474" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" ht="13.2">
       <c r="A474" s="26" t="s">
         <v>461</v>
       </c>
@@ -31799,7 +31913,7 @@
       <c r="T474" s="21"/>
       <c r="U474" s="21"/>
     </row>
-    <row r="475" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" ht="13.2">
       <c r="A475" s="26" t="s">
         <v>1176</v>
       </c>
@@ -31854,7 +31968,7 @@
       <c r="T475" s="49"/>
       <c r="U475" s="49"/>
     </row>
-    <row r="476" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" ht="13.2">
       <c r="A476" s="26" t="s">
         <v>1178</v>
       </c>
@@ -31909,7 +32023,7 @@
       <c r="T476" s="21"/>
       <c r="U476" s="21"/>
     </row>
-    <row r="477" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" ht="13.2">
       <c r="A477" s="26" t="s">
         <v>417</v>
       </c>
@@ -31964,7 +32078,7 @@
       <c r="T477" s="21"/>
       <c r="U477" s="21"/>
     </row>
-    <row r="478" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" ht="13.2">
       <c r="A478" s="26" t="s">
         <v>228</v>
       </c>
@@ -32019,7 +32133,7 @@
       <c r="T478" s="33"/>
       <c r="U478" s="33"/>
     </row>
-    <row r="479" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" ht="13.2">
       <c r="A479" s="26" t="s">
         <v>319</v>
       </c>
@@ -32068,7 +32182,7 @@
       <c r="T479" s="33"/>
       <c r="U479" s="33"/>
     </row>
-    <row r="480" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" ht="13.2">
       <c r="A480" s="26" t="s">
         <v>1183</v>
       </c>
@@ -32121,7 +32235,7 @@
       <c r="T480" s="21"/>
       <c r="U480" s="21"/>
     </row>
-    <row r="481" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" ht="13.2">
       <c r="A481" s="26" t="s">
         <v>1185</v>
       </c>
@@ -32172,7 +32286,7 @@
       <c r="T481" s="21"/>
       <c r="U481" s="21"/>
     </row>
-    <row r="482" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:21" ht="13.2">
       <c r="A482" s="26" t="s">
         <v>431</v>
       </c>
@@ -32221,7 +32335,7 @@
       <c r="T482" s="21"/>
       <c r="U482" s="21"/>
     </row>
-    <row r="483" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:21" ht="13.2">
       <c r="A483" s="26" t="s">
         <v>1188</v>
       </c>
@@ -32274,7 +32388,7 @@
       <c r="T483" s="21"/>
       <c r="U483" s="21"/>
     </row>
-    <row r="484" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:21" ht="13.2">
       <c r="A484" s="26" t="s">
         <v>1191</v>
       </c>
@@ -32325,7 +32439,7 @@
       <c r="T484" s="21"/>
       <c r="U484" s="21"/>
     </row>
-    <row r="485" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:21" ht="13.2">
       <c r="A485" s="26" t="s">
         <v>1193</v>
       </c>
@@ -32376,7 +32490,7 @@
       <c r="T485" s="33"/>
       <c r="U485" s="33"/>
     </row>
-    <row r="486" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:21" ht="13.2">
       <c r="A486" s="26" t="s">
         <v>325</v>
       </c>
@@ -32427,7 +32541,7 @@
       <c r="T486" s="33"/>
       <c r="U486" s="33"/>
     </row>
-    <row r="487" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:21" ht="13.2">
       <c r="A487" s="26" t="s">
         <v>1196</v>
       </c>
@@ -32480,7 +32594,7 @@
       <c r="T487" s="21"/>
       <c r="U487" s="21"/>
     </row>
-    <row r="488" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:21" ht="13.2">
       <c r="A488" s="26" t="s">
         <v>385</v>
       </c>
@@ -32531,7 +32645,7 @@
       <c r="T488" s="33"/>
       <c r="U488" s="33"/>
     </row>
-    <row r="489" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:21" ht="13.2">
       <c r="A489" s="26" t="s">
         <v>320</v>
       </c>
@@ -32582,7 +32696,7 @@
       <c r="T489" s="21"/>
       <c r="U489" s="21"/>
     </row>
-    <row r="490" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:21" ht="13.2">
       <c r="A490" s="26" t="s">
         <v>324</v>
       </c>
@@ -32633,7 +32747,7 @@
       <c r="T490" s="21"/>
       <c r="U490" s="21"/>
     </row>
-    <row r="491" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:21" ht="13.2">
       <c r="A491" s="26" t="s">
         <v>381</v>
       </c>
@@ -32686,7 +32800,7 @@
       <c r="T491" s="21"/>
       <c r="U491" s="21"/>
     </row>
-    <row r="492" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:21" ht="13.2">
       <c r="A492" s="26" t="s">
         <v>1202</v>
       </c>
@@ -32737,7 +32851,7 @@
       <c r="T492" s="21"/>
       <c r="U492" s="21"/>
     </row>
-    <row r="493" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:21" ht="13.2">
       <c r="A493" s="26" t="s">
         <v>1204</v>
       </c>
@@ -32788,7 +32902,7 @@
       <c r="T493" s="33"/>
       <c r="U493" s="21"/>
     </row>
-    <row r="494" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:21" ht="13.2">
       <c r="A494" s="26" t="s">
         <v>414</v>
       </c>
@@ -32839,7 +32953,7 @@
       <c r="T494" s="21"/>
       <c r="U494" s="21"/>
     </row>
-    <row r="495" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:21" ht="13.2">
       <c r="A495" s="26" t="s">
         <v>1207</v>
       </c>
@@ -32892,7 +33006,7 @@
       <c r="T495" s="21"/>
       <c r="U495" s="21"/>
     </row>
-    <row r="496" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:21" ht="13.2">
       <c r="A496" s="26" t="s">
         <v>395</v>
       </c>
@@ -32943,7 +33057,7 @@
       <c r="T496" s="21"/>
       <c r="U496" s="21"/>
     </row>
-    <row r="497" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:21" ht="13.2">
       <c r="A497" s="26" t="s">
         <v>322</v>
       </c>
@@ -32994,7 +33108,7 @@
       <c r="T497" s="21"/>
       <c r="U497" s="21"/>
     </row>
-    <row r="498" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:21" ht="13.2">
       <c r="A498" s="26" t="s">
         <v>1211</v>
       </c>
@@ -33049,7 +33163,7 @@
       <c r="T498" s="21"/>
       <c r="U498" s="21"/>
     </row>
-    <row r="499" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:21" ht="13.2">
       <c r="A499" s="26" t="s">
         <v>380</v>
       </c>
@@ -33100,7 +33214,7 @@
       <c r="T499" s="21"/>
       <c r="U499" s="21"/>
     </row>
-    <row r="500" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:21" ht="13.2">
       <c r="A500" s="26" t="s">
         <v>1214</v>
       </c>
@@ -33153,7 +33267,7 @@
       <c r="T500" s="21"/>
       <c r="U500" s="21"/>
     </row>
-    <row r="501" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:21" ht="13.2">
       <c r="A501" s="26" t="s">
         <v>384</v>
       </c>
@@ -33204,7 +33318,7 @@
       <c r="T501" s="21"/>
       <c r="U501" s="21"/>
     </row>
-    <row r="502" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:21" ht="13.2">
       <c r="A502" s="26" t="s">
         <v>249</v>
       </c>
@@ -33255,7 +33369,7 @@
       <c r="T502" s="21"/>
       <c r="U502" s="21"/>
     </row>
-    <row r="503" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:21" ht="13.2">
       <c r="A503" s="26" t="s">
         <v>1218</v>
       </c>
@@ -33306,7 +33420,7 @@
       <c r="T503" s="21"/>
       <c r="U503" s="21"/>
     </row>
-    <row r="504" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:21" ht="13.2">
       <c r="A504" s="26" t="s">
         <v>393</v>
       </c>
@@ -33357,7 +33471,7 @@
       <c r="T504" s="21"/>
       <c r="U504" s="21"/>
     </row>
-    <row r="505" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:21" ht="13.2">
       <c r="A505" s="26" t="s">
         <v>321</v>
       </c>
@@ -33410,7 +33524,7 @@
       <c r="T505" s="21"/>
       <c r="U505" s="21"/>
     </row>
-    <row r="506" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:21" ht="13.2">
       <c r="A506" s="26" t="s">
         <v>1222</v>
       </c>
@@ -33463,7 +33577,7 @@
       <c r="T506" s="21"/>
       <c r="U506" s="21"/>
     </row>
-    <row r="507" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:21" ht="13.2">
       <c r="A507" s="26" t="s">
         <v>394</v>
       </c>
@@ -33514,7 +33628,7 @@
       <c r="T507" s="21"/>
       <c r="U507" s="21"/>
     </row>
-    <row r="508" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:21" ht="13.2">
       <c r="A508" s="26" t="s">
         <v>1225</v>
       </c>
@@ -33565,7 +33679,7 @@
       <c r="T508" s="21"/>
       <c r="U508" s="21"/>
     </row>
-    <row r="509" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:21" ht="13.2">
       <c r="A509" s="26" t="s">
         <v>323</v>
       </c>
@@ -33616,7 +33730,7 @@
       <c r="T509" s="21"/>
       <c r="U509" s="21"/>
     </row>
-    <row r="510" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:21" ht="13.2">
       <c r="A510" s="26" t="s">
         <v>1228</v>
       </c>
@@ -33669,7 +33783,7 @@
       <c r="T510" s="21"/>
       <c r="U510" s="21"/>
     </row>
-    <row r="511" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:21" ht="13.2">
       <c r="A511" s="26" t="s">
         <v>1230</v>
       </c>
@@ -33720,7 +33834,7 @@
       <c r="T511" s="21"/>
       <c r="U511" s="21"/>
     </row>
-    <row r="512" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:21" ht="13.2">
       <c r="A512" s="26" t="s">
         <v>386</v>
       </c>
@@ -33771,7 +33885,7 @@
       <c r="T512" s="21"/>
       <c r="U512" s="21"/>
     </row>
-    <row r="513" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:21" ht="13.2">
       <c r="A513" s="26" t="s">
         <v>396</v>
       </c>
@@ -33822,7 +33936,7 @@
       <c r="T513" s="21"/>
       <c r="U513" s="21"/>
     </row>
-    <row r="514" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:21" ht="13.2">
       <c r="A514" s="26" t="s">
         <v>1234</v>
       </c>
@@ -33875,7 +33989,7 @@
       <c r="T514" s="21"/>
       <c r="U514" s="21"/>
     </row>
-    <row r="515" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:21" ht="13.2">
       <c r="A515" s="26" t="s">
         <v>1236</v>
       </c>
@@ -33926,7 +34040,7 @@
       <c r="T515" s="21"/>
       <c r="U515" s="21"/>
     </row>
-    <row r="516" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:21" ht="13.2">
       <c r="A516" s="26" t="s">
         <v>1238</v>
       </c>
@@ -33977,7 +34091,7 @@
       <c r="T516" s="21"/>
       <c r="U516" s="21"/>
     </row>
-    <row r="517" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:21" ht="13.2">
       <c r="A517" s="26" t="s">
         <v>326</v>
       </c>
@@ -34030,7 +34144,7 @@
       <c r="T517" s="21"/>
       <c r="U517" s="21"/>
     </row>
-    <row r="518" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:21" ht="13.2">
       <c r="A518" s="26" t="s">
         <v>1241</v>
       </c>
@@ -34083,7 +34197,7 @@
       <c r="T518" s="21"/>
       <c r="U518" s="21"/>
     </row>
-    <row r="519" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:21" ht="13.2">
       <c r="A519" s="26" t="s">
         <v>329</v>
       </c>
@@ -34136,7 +34250,7 @@
       <c r="T519" s="21"/>
       <c r="U519" s="21"/>
     </row>
-    <row r="520" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:21" ht="13.2">
       <c r="A520" s="26" t="s">
         <v>1245</v>
       </c>
@@ -34191,7 +34305,7 @@
       <c r="T520" s="40"/>
       <c r="U520" s="40"/>
     </row>
-    <row r="521" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:21" ht="13.2">
       <c r="A521" s="26" t="s">
         <v>327</v>
       </c>
@@ -34244,7 +34358,7 @@
       <c r="T521" s="21"/>
       <c r="U521" s="21"/>
     </row>
-    <row r="522" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:21" ht="13.2">
       <c r="A522" s="26" t="s">
         <v>1248</v>
       </c>
@@ -34297,7 +34411,7 @@
       <c r="T522" s="21"/>
       <c r="U522" s="21"/>
     </row>
-    <row r="523" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:21" ht="13.2">
       <c r="A523" s="26" t="s">
         <v>328</v>
       </c>
@@ -34350,7 +34464,7 @@
       <c r="T523" s="21"/>
       <c r="U523" s="21"/>
     </row>
-    <row r="524" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:21" ht="13.2">
       <c r="A524" s="26" t="s">
         <v>1251</v>
       </c>
@@ -34401,7 +34515,7 @@
       <c r="T524" s="21"/>
       <c r="U524" s="21"/>
     </row>
-    <row r="525" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:21" ht="13.2">
       <c r="A525" s="26" t="s">
         <v>203</v>
       </c>
@@ -34454,7 +34568,7 @@
       <c r="T525" s="21"/>
       <c r="U525" s="21"/>
     </row>
-    <row r="526" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:21" ht="13.2">
       <c r="A526" s="26" t="s">
         <v>516</v>
       </c>
@@ -34507,7 +34621,7 @@
       <c r="T526" s="21"/>
       <c r="U526" s="21"/>
     </row>
-    <row r="527" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:21" ht="13.2">
       <c r="A527" s="26" t="s">
         <v>1255</v>
       </c>
@@ -34558,7 +34672,7 @@
       <c r="T527" s="21"/>
       <c r="U527" s="21"/>
     </row>
-    <row r="528" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:21" ht="13.2">
       <c r="A528" s="26" t="s">
         <v>332</v>
       </c>
@@ -34611,7 +34725,7 @@
       <c r="T528" s="21"/>
       <c r="U528" s="21"/>
     </row>
-    <row r="529" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:21" ht="13.2">
       <c r="A529" s="26" t="s">
         <v>1258</v>
       </c>
@@ -34664,7 +34778,7 @@
       <c r="T529" s="21"/>
       <c r="U529" s="21"/>
     </row>
-    <row r="530" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:21" ht="13.2">
       <c r="A530" s="26" t="s">
         <v>1260</v>
       </c>
@@ -34715,7 +34829,7 @@
       <c r="T530" s="21"/>
       <c r="U530" s="21"/>
     </row>
-    <row r="531" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:21" ht="13.2">
       <c r="A531" s="26" t="s">
         <v>204</v>
       </c>
@@ -34766,7 +34880,7 @@
       <c r="T531" s="21"/>
       <c r="U531" s="21"/>
     </row>
-    <row r="532" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:21" ht="13.2">
       <c r="A532" s="26" t="s">
         <v>334</v>
       </c>
@@ -34819,7 +34933,7 @@
       <c r="T532" s="21"/>
       <c r="U532" s="21"/>
     </row>
-    <row r="533" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:21" ht="13.2">
       <c r="A533" s="26" t="s">
         <v>535</v>
       </c>
@@ -34870,7 +34984,7 @@
       <c r="T533" s="21"/>
       <c r="U533" s="21"/>
     </row>
-    <row r="534" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:21" ht="13.2">
       <c r="A534" s="26" t="s">
         <v>1265</v>
       </c>
@@ -34923,7 +35037,7 @@
       <c r="T534" s="21"/>
       <c r="U534" s="21"/>
     </row>
-    <row r="535" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:21" ht="13.2">
       <c r="A535" s="26" t="s">
         <v>478</v>
       </c>
@@ -34976,7 +35090,7 @@
       <c r="T535" s="21"/>
       <c r="U535" s="21"/>
     </row>
-    <row r="536" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:21" ht="13.2">
       <c r="A536" s="26" t="s">
         <v>1268</v>
       </c>
@@ -35029,7 +35143,7 @@
       <c r="T536" s="21"/>
       <c r="U536" s="21"/>
     </row>
-    <row r="537" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:21" ht="13.2">
       <c r="A537" s="26" t="s">
         <v>532</v>
       </c>
@@ -35082,7 +35196,7 @@
       <c r="T537" s="21"/>
       <c r="U537" s="21"/>
     </row>
-    <row r="538" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:21" ht="13.2">
       <c r="A538" s="26" t="s">
         <v>331</v>
       </c>
@@ -35135,7 +35249,7 @@
       <c r="T538" s="21"/>
       <c r="U538" s="21"/>
     </row>
-    <row r="539" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:21" ht="13.2">
       <c r="A539" s="26" t="s">
         <v>1272</v>
       </c>
@@ -35188,7 +35302,7 @@
       <c r="T539" s="21"/>
       <c r="U539" s="21"/>
     </row>
-    <row r="540" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:21" ht="13.2">
       <c r="A540" s="26" t="s">
         <v>1274</v>
       </c>
@@ -35241,7 +35355,7 @@
       <c r="T540" s="21"/>
       <c r="U540" s="21"/>
     </row>
-    <row r="541" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:21" ht="13.2">
       <c r="A541" s="26" t="s">
         <v>1276</v>
       </c>
@@ -35294,7 +35408,7 @@
       <c r="T541" s="21"/>
       <c r="U541" s="21"/>
     </row>
-    <row r="542" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:21" ht="13.2">
       <c r="A542" s="26" t="s">
         <v>534</v>
       </c>
@@ -35347,7 +35461,7 @@
       <c r="T542" s="21"/>
       <c r="U542" s="21"/>
     </row>
-    <row r="543" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:21" ht="13.2">
       <c r="A543" s="26" t="s">
         <v>208</v>
       </c>
@@ -35400,7 +35514,7 @@
       <c r="T543" s="21"/>
       <c r="U543" s="21"/>
     </row>
-    <row r="544" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:21" ht="13.2">
       <c r="A544" s="26" t="s">
         <v>1280</v>
       </c>
@@ -35453,7 +35567,7 @@
       <c r="T544" s="21"/>
       <c r="U544" s="21"/>
     </row>
-    <row r="545" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:21" ht="13.2">
       <c r="A545" s="26" t="s">
         <v>1282</v>
       </c>
@@ -35506,7 +35620,7 @@
       <c r="T545" s="21"/>
       <c r="U545" s="21"/>
     </row>
-    <row r="546" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:21" ht="13.2">
       <c r="A546" s="26" t="s">
         <v>1284</v>
       </c>
@@ -35557,7 +35671,7 @@
       <c r="T546" s="21"/>
       <c r="U546" s="21"/>
     </row>
-    <row r="547" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:21" ht="13.2">
       <c r="A547" s="26" t="s">
         <v>1286</v>
       </c>
@@ -35608,7 +35722,7 @@
       <c r="T547" s="21"/>
       <c r="U547" s="21"/>
     </row>
-    <row r="548" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:21" ht="13.2">
       <c r="A548" s="26" t="s">
         <v>1288</v>
       </c>
@@ -35663,7 +35777,7 @@
       <c r="T548" s="21"/>
       <c r="U548" s="21"/>
     </row>
-    <row r="549" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:21" ht="13.2">
       <c r="A549" s="26" t="s">
         <v>517</v>
       </c>
@@ -35716,7 +35830,7 @@
       <c r="T549" s="21"/>
       <c r="U549" s="21"/>
     </row>
-    <row r="550" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:21" ht="13.2">
       <c r="A550" s="26" t="s">
         <v>201</v>
       </c>
@@ -35769,7 +35883,7 @@
       <c r="T550" s="21"/>
       <c r="U550" s="21"/>
     </row>
-    <row r="551" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:21" ht="13.2">
       <c r="A551" s="26" t="s">
         <v>1293</v>
       </c>
@@ -35822,7 +35936,7 @@
       <c r="T551" s="21"/>
       <c r="U551" s="21"/>
     </row>
-    <row r="552" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:21" ht="13.2">
       <c r="A552" s="26" t="s">
         <v>335</v>
       </c>
@@ -35875,7 +35989,7 @@
       <c r="T552" s="21"/>
       <c r="U552" s="21"/>
     </row>
-    <row r="553" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:21" ht="13.2">
       <c r="A553" s="26" t="s">
         <v>330</v>
       </c>
@@ -35928,7 +36042,7 @@
       <c r="T553" s="21"/>
       <c r="U553" s="21"/>
     </row>
-    <row r="554" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:21" ht="13.2">
       <c r="A554" s="26" t="s">
         <v>582</v>
       </c>
@@ -35981,7 +36095,7 @@
       <c r="T554" s="21"/>
       <c r="U554" s="21"/>
     </row>
-    <row r="555" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:21" ht="13.2">
       <c r="A555" s="26" t="s">
         <v>1298</v>
       </c>
@@ -36034,7 +36148,7 @@
       <c r="T555" s="21"/>
       <c r="U555" s="21"/>
     </row>
-    <row r="556" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:21" ht="13.2">
       <c r="A556" s="26" t="s">
         <v>1300</v>
       </c>
@@ -36087,7 +36201,7 @@
       <c r="T556" s="21"/>
       <c r="U556" s="21"/>
     </row>
-    <row r="557" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:21" ht="13.2">
       <c r="A557" s="26" t="s">
         <v>498</v>
       </c>
@@ -36142,7 +36256,7 @@
       <c r="T557" s="21"/>
       <c r="U557" s="21"/>
     </row>
-    <row r="558" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:21" ht="13.2">
       <c r="A558" s="26" t="s">
         <v>1303</v>
       </c>
@@ -36195,7 +36309,7 @@
       <c r="T558" s="21"/>
       <c r="U558" s="21"/>
     </row>
-    <row r="559" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:21" ht="13.2">
       <c r="A559" s="26" t="s">
         <v>1305</v>
       </c>
@@ -36248,7 +36362,7 @@
       <c r="T559" s="33"/>
       <c r="U559" s="42"/>
     </row>
-    <row r="560" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:21" ht="13.2">
       <c r="A560" s="26" t="s">
         <v>336</v>
       </c>
@@ -36299,7 +36413,7 @@
       <c r="T560" s="21"/>
       <c r="U560" s="21"/>
     </row>
-    <row r="561" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" ht="13.2">
       <c r="A561" s="26" t="s">
         <v>1308</v>
       </c>
@@ -36350,7 +36464,7 @@
       <c r="T561" s="21"/>
       <c r="U561" s="21"/>
     </row>
-    <row r="562" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" ht="13.2">
       <c r="A562" s="26" t="s">
         <v>207</v>
       </c>
@@ -36405,7 +36519,7 @@
       <c r="T562" s="40"/>
       <c r="U562" s="40"/>
     </row>
-    <row r="563" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:21" ht="13.2">
       <c r="A563" s="26" t="s">
         <v>1311</v>
       </c>
@@ -36458,7 +36572,7 @@
       <c r="T563" s="21"/>
       <c r="U563" s="21"/>
     </row>
-    <row r="564" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:21" ht="13.2">
       <c r="A564" s="26" t="s">
         <v>1313</v>
       </c>
@@ -36509,7 +36623,7 @@
       <c r="T564" s="21"/>
       <c r="U564" s="21"/>
     </row>
-    <row r="565" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:21" ht="13.2">
       <c r="A565" s="26" t="s">
         <v>603</v>
       </c>
@@ -36560,7 +36674,7 @@
       <c r="T565" s="33"/>
       <c r="U565" s="21"/>
     </row>
-    <row r="566" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:21" ht="13.2">
       <c r="A566" s="26" t="s">
         <v>416</v>
       </c>
@@ -36613,7 +36727,7 @@
       <c r="T566" s="21"/>
       <c r="U566" s="21"/>
     </row>
-    <row r="567" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:21" ht="13.2">
       <c r="A567" s="26" t="s">
         <v>479</v>
       </c>
@@ -36666,7 +36780,7 @@
       <c r="T567" s="21"/>
       <c r="U567" s="21"/>
     </row>
-    <row r="568" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:21" ht="13.2">
       <c r="A568" s="26" t="s">
         <v>1318</v>
       </c>
@@ -36717,7 +36831,7 @@
       <c r="T568" s="21"/>
       <c r="U568" s="21"/>
     </row>
-    <row r="569" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:21" ht="13.2">
       <c r="A569" s="26" t="s">
         <v>581</v>
       </c>
@@ -36768,7 +36882,7 @@
       <c r="T569" s="21"/>
       <c r="U569" s="21"/>
     </row>
-    <row r="570" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:21" ht="13.2">
       <c r="A570" s="26" t="s">
         <v>1321</v>
       </c>
@@ -36821,7 +36935,7 @@
       <c r="T570" s="21"/>
       <c r="U570" s="21"/>
     </row>
-    <row r="571" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" ht="13.2">
       <c r="A571" s="26" t="s">
         <v>1323</v>
       </c>
@@ -36874,7 +36988,7 @@
       <c r="T571" s="21"/>
       <c r="U571" s="21"/>
     </row>
-    <row r="572" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" ht="13.2">
       <c r="A572" s="26" t="s">
         <v>1325</v>
       </c>
@@ -36927,7 +37041,7 @@
       <c r="T572" s="21"/>
       <c r="U572" s="21"/>
     </row>
-    <row r="573" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" ht="13.2">
       <c r="A573" s="26" t="s">
         <v>580</v>
       </c>
@@ -36980,7 +37094,7 @@
       <c r="T573" s="21"/>
       <c r="U573" s="21"/>
     </row>
-    <row r="574" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:21" ht="13.2">
       <c r="A574" s="26" t="s">
         <v>1328</v>
       </c>
@@ -37035,7 +37149,7 @@
       <c r="T574" s="33"/>
       <c r="U574" s="21"/>
     </row>
-    <row r="575" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" ht="13.2">
       <c r="A575" s="26" t="s">
         <v>415</v>
       </c>
@@ -37086,7 +37200,7 @@
       <c r="T575" s="21"/>
       <c r="U575" s="21"/>
     </row>
-    <row r="576" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" ht="13.2">
       <c r="A576" s="26" t="s">
         <v>1331</v>
       </c>
@@ -37139,7 +37253,7 @@
       <c r="T576" s="21"/>
       <c r="U576" s="21"/>
     </row>
-    <row r="577" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" ht="13.2">
       <c r="A577" s="26" t="s">
         <v>1333</v>
       </c>
@@ -37192,7 +37306,7 @@
       <c r="T577" s="21"/>
       <c r="U577" s="21"/>
     </row>
-    <row r="578" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:21" ht="13.2">
       <c r="A578" s="26" t="s">
         <v>1335</v>
       </c>
@@ -37243,7 +37357,7 @@
       <c r="T578" s="21"/>
       <c r="U578" s="21"/>
     </row>
-    <row r="579" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" ht="13.2">
       <c r="A579" s="26" t="s">
         <v>1337</v>
       </c>
@@ -37296,7 +37410,7 @@
       <c r="T579" s="21"/>
       <c r="U579" s="21"/>
     </row>
-    <row r="580" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" ht="13.2">
       <c r="A580" s="26" t="s">
         <v>1339</v>
       </c>
@@ -37347,7 +37461,7 @@
       <c r="T580" s="21"/>
       <c r="U580" s="21"/>
     </row>
-    <row r="581" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" ht="13.2">
       <c r="A581" s="26" t="s">
         <v>333</v>
       </c>
@@ -37398,7 +37512,7 @@
       <c r="T581" s="33"/>
       <c r="U581" s="21"/>
     </row>
-    <row r="582" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" ht="13.2">
       <c r="A582" s="26" t="s">
         <v>533</v>
       </c>
@@ -37451,7 +37565,7 @@
       <c r="T582" s="33"/>
       <c r="U582" s="33"/>
     </row>
-    <row r="583" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:21" ht="13.2">
       <c r="A583" s="26" t="s">
         <v>518</v>
       </c>
@@ -37504,7 +37618,7 @@
       <c r="T583" s="21"/>
       <c r="U583" s="21"/>
     </row>
-    <row r="584" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" ht="13.2">
       <c r="A584" s="26" t="s">
         <v>602</v>
       </c>
@@ -37555,7 +37669,7 @@
       <c r="T584" s="21"/>
       <c r="U584" s="21"/>
     </row>
-    <row r="585" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:21" ht="13.2">
       <c r="A585" s="26" t="s">
         <v>205</v>
       </c>
@@ -37608,7 +37722,7 @@
       <c r="T585" s="33"/>
       <c r="U585" s="21"/>
     </row>
-    <row r="586" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:21" ht="13.2">
       <c r="A586" s="26" t="s">
         <v>1346</v>
       </c>
@@ -37659,7 +37773,7 @@
       <c r="T586" s="33"/>
       <c r="U586" s="33"/>
     </row>
-    <row r="587" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:21" ht="13.2">
       <c r="A587" s="26" t="s">
         <v>1348</v>
       </c>
@@ -37712,7 +37826,7 @@
       <c r="T587" s="21"/>
       <c r="U587" s="21"/>
     </row>
-    <row r="588" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:21" ht="13.2">
       <c r="A588" s="26" t="s">
         <v>1350</v>
       </c>
@@ -37763,7 +37877,7 @@
       <c r="T588" s="33"/>
       <c r="U588" s="21"/>
     </row>
-    <row r="589" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" ht="13.2">
       <c r="A589" s="26" t="s">
         <v>198</v>
       </c>
@@ -37816,7 +37930,7 @@
       <c r="T589" s="33"/>
       <c r="U589" s="21"/>
     </row>
-    <row r="590" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:21" ht="13.2">
       <c r="A590" s="26" t="s">
         <v>1353</v>
       </c>
@@ -37869,7 +37983,7 @@
       <c r="T590" s="21"/>
       <c r="U590" s="21"/>
     </row>
-    <row r="591" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:21" ht="13.2">
       <c r="A591" s="26" t="s">
         <v>1355</v>
       </c>
@@ -37922,7 +38036,7 @@
       <c r="T591" s="33"/>
       <c r="U591" s="33"/>
     </row>
-    <row r="592" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:21" ht="13.2">
       <c r="A592" s="26" t="s">
         <v>337</v>
       </c>
@@ -37971,7 +38085,7 @@
       <c r="T592" s="33"/>
       <c r="U592" s="33"/>
     </row>
-    <row r="593" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:21" ht="13.2">
       <c r="A593" s="26" t="s">
         <v>376</v>
       </c>
@@ -38022,7 +38136,7 @@
       <c r="T593" s="33"/>
       <c r="U593" s="33"/>
     </row>
-    <row r="594" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:21" ht="13.2">
       <c r="A594" s="26" t="s">
         <v>444</v>
       </c>
@@ -38071,7 +38185,7 @@
       <c r="T594" s="21"/>
       <c r="U594" s="21"/>
     </row>
-    <row r="595" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:21" ht="13.2">
       <c r="A595" s="26" t="s">
         <v>340</v>
       </c>
@@ -38122,7 +38236,7 @@
       <c r="T595" s="21"/>
       <c r="U595" s="21"/>
     </row>
-    <row r="596" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:21" ht="13.2">
       <c r="A596" s="26" t="s">
         <v>339</v>
       </c>
@@ -38173,7 +38287,7 @@
       <c r="T596" s="21"/>
       <c r="U596" s="21"/>
     </row>
-    <row r="597" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:21" ht="13.2">
       <c r="A597" s="26" t="s">
         <v>338</v>
       </c>
@@ -38224,7 +38338,7 @@
       <c r="T597" s="21"/>
       <c r="U597" s="21"/>
     </row>
-    <row r="598" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:21" ht="13.2">
       <c r="A598" s="26" t="s">
         <v>240</v>
       </c>
@@ -38275,7 +38389,7 @@
       <c r="T598" s="21"/>
       <c r="U598" s="21"/>
     </row>
-    <row r="599" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:21" ht="13.2">
       <c r="A599" s="26" t="s">
         <v>1365</v>
       </c>
@@ -38326,7 +38440,7 @@
       <c r="T599" s="21"/>
       <c r="U599" s="21"/>
     </row>
-    <row r="600" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:21" ht="13.2">
       <c r="A600" s="26" t="s">
         <v>341</v>
       </c>
@@ -38377,7 +38491,7 @@
       <c r="T600" s="21"/>
       <c r="U600" s="21"/>
     </row>
-    <row r="601" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:21" ht="13.2">
       <c r="A601" s="26" t="s">
         <v>460</v>
       </c>
@@ -38428,7 +38542,7 @@
       <c r="T601" s="21"/>
       <c r="U601" s="21"/>
     </row>
-    <row r="602" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:21" ht="13.2">
       <c r="A602" s="26" t="s">
         <v>1369</v>
       </c>
@@ -38479,7 +38593,7 @@
       <c r="T602" s="21"/>
       <c r="U602" s="21"/>
     </row>
-    <row r="603" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:21" ht="13.2">
       <c r="A603" s="26" t="s">
         <v>239</v>
       </c>
@@ -38530,7 +38644,7 @@
       <c r="T603" s="21"/>
       <c r="U603" s="21"/>
     </row>
-    <row r="604" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:21" ht="13.2">
       <c r="A604" s="26" t="s">
         <v>1372</v>
       </c>
@@ -38581,7 +38695,7 @@
       <c r="T604" s="21"/>
       <c r="U604" s="21"/>
     </row>
-    <row r="605" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:21" ht="13.2">
       <c r="A605" s="26" t="s">
         <v>1374</v>
       </c>
@@ -38632,7 +38746,7 @@
       <c r="T605" s="21"/>
       <c r="U605" s="21"/>
     </row>
-    <row r="606" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:21" ht="13.2">
       <c r="A606" s="26" t="s">
         <v>382</v>
       </c>
@@ -38683,7 +38797,7 @@
       <c r="T606" s="21"/>
       <c r="U606" s="21"/>
     </row>
-    <row r="607" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:21" ht="13.2">
       <c r="A607" s="26" t="s">
         <v>429</v>
       </c>
@@ -38736,7 +38850,7 @@
       <c r="T607" s="21"/>
       <c r="U607" s="21"/>
     </row>
-    <row r="608" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:21" ht="13.2">
       <c r="A608" s="26" t="s">
         <v>643</v>
       </c>
@@ -38787,7 +38901,7 @@
       <c r="T608" s="21"/>
       <c r="U608" s="21"/>
     </row>
-    <row r="609" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:21" ht="13.2">
       <c r="A609" s="26" t="s">
         <v>1381</v>
       </c>
@@ -38840,7 +38954,7 @@
       <c r="T609" s="21"/>
       <c r="U609" s="21"/>
     </row>
-    <row r="610" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:21" ht="13.2">
       <c r="A610" s="26" t="s">
         <v>12</v>
       </c>
@@ -38891,7 +39005,7 @@
       <c r="T610" s="21"/>
       <c r="U610" s="21"/>
     </row>
-    <row r="611" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:21" ht="13.2">
       <c r="A611" s="26" t="s">
         <v>343</v>
       </c>
@@ -38942,7 +39056,7 @@
       <c r="T611" s="21"/>
       <c r="U611" s="21"/>
     </row>
-    <row r="612" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:21" ht="13.2">
       <c r="A612" s="26" t="s">
         <v>221</v>
       </c>
@@ -38991,7 +39105,7 @@
       <c r="T612" s="21"/>
       <c r="U612" s="21"/>
     </row>
-    <row r="613" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:21" ht="13.2">
       <c r="A613" s="26" t="s">
         <v>641</v>
       </c>
@@ -39042,7 +39156,7 @@
       <c r="T613" s="21"/>
       <c r="U613" s="21"/>
     </row>
-    <row r="614" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:21" ht="13.2">
       <c r="A614" s="26" t="s">
         <v>623</v>
       </c>
@@ -39093,7 +39207,7 @@
       <c r="T614" s="21"/>
       <c r="U614" s="21"/>
     </row>
-    <row r="615" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:21" ht="13.2">
       <c r="A615" s="26" t="s">
         <v>222</v>
       </c>
@@ -39144,7 +39258,7 @@
       <c r="T615" s="21"/>
       <c r="U615" s="21"/>
     </row>
-    <row r="616" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:21" ht="13.2">
       <c r="A616" s="26" t="s">
         <v>642</v>
       </c>
@@ -39195,7 +39309,7 @@
       <c r="T616" s="21"/>
       <c r="U616" s="21"/>
     </row>
-    <row r="617" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:21" ht="13.2">
       <c r="A617" s="52" t="s">
         <v>1390</v>
       </c>
@@ -39246,7 +39360,7 @@
       <c r="T617" s="33"/>
       <c r="U617" s="33"/>
     </row>
-    <row r="618" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:21" ht="13.2">
       <c r="A618" s="26" t="s">
         <v>219</v>
       </c>
@@ -39297,7 +39411,7 @@
       <c r="T618" s="21"/>
       <c r="U618" s="21"/>
     </row>
-    <row r="619" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:21" ht="13.2">
       <c r="A619" s="26" t="s">
         <v>344</v>
       </c>
@@ -39348,7 +39462,7 @@
       <c r="T619" s="21"/>
       <c r="U619" s="21"/>
     </row>
-    <row r="620" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:21" ht="13.2">
       <c r="A620" s="26" t="s">
         <v>1394</v>
       </c>
@@ -39403,7 +39517,7 @@
       <c r="T620" s="21"/>
       <c r="U620" s="21"/>
     </row>
-    <row r="621" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:21" ht="13.2">
       <c r="A621" s="26" t="s">
         <v>1396</v>
       </c>
@@ -39454,7 +39568,7 @@
       <c r="T621" s="21"/>
       <c r="U621" s="21"/>
     </row>
-    <row r="622" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:21" ht="13.2">
       <c r="A622" s="26" t="s">
         <v>362</v>
       </c>
@@ -39503,7 +39617,7 @@
       <c r="T622" s="21"/>
       <c r="U622" s="21"/>
     </row>
-    <row r="623" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:21" ht="13.2">
       <c r="A623" s="26" t="s">
         <v>1399</v>
       </c>
@@ -39554,7 +39668,7 @@
       <c r="T623" s="21"/>
       <c r="U623" s="21"/>
     </row>
-    <row r="624" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:21" ht="13.2">
       <c r="A624" s="26" t="s">
         <v>220</v>
       </c>
@@ -39605,7 +39719,7 @@
       <c r="T624" s="21"/>
       <c r="U624" s="21"/>
     </row>
-    <row r="625" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:21" ht="13.2">
       <c r="A625" s="26" t="s">
         <v>354</v>
       </c>
@@ -39658,7 +39772,7 @@
       <c r="T625" s="21"/>
       <c r="U625" s="21"/>
     </row>
-    <row r="626" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:21" ht="13.2">
       <c r="A626" s="26" t="s">
         <v>1403</v>
       </c>
@@ -39709,7 +39823,7 @@
       <c r="T626" s="41"/>
       <c r="U626" s="41"/>
     </row>
-    <row r="627" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:21" ht="13.2">
       <c r="A627" s="26" t="s">
         <v>1405</v>
       </c>
@@ -39762,7 +39876,7 @@
       <c r="T627" s="21"/>
       <c r="U627" s="21"/>
     </row>
-    <row r="628" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:21" ht="13.2">
       <c r="A628" s="26" t="s">
         <v>345</v>
       </c>
@@ -39813,7 +39927,7 @@
       <c r="T628" s="21"/>
       <c r="U628" s="21"/>
     </row>
-    <row r="629" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:21" ht="13.2">
       <c r="A629" s="26" t="s">
         <v>210</v>
       </c>
@@ -39864,7 +39978,7 @@
       <c r="T629" s="21"/>
       <c r="U629" s="21"/>
     </row>
-    <row r="630" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:21" ht="13.2">
       <c r="A630" s="26" t="s">
         <v>1409</v>
       </c>
@@ -39915,7 +40029,7 @@
       <c r="T630" s="21"/>
       <c r="U630" s="21"/>
     </row>
-    <row r="631" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:21" ht="13.2">
       <c r="A631" s="26" t="s">
         <v>349</v>
       </c>
@@ -39966,7 +40080,7 @@
       <c r="T631" s="21"/>
       <c r="U631" s="21"/>
     </row>
-    <row r="632" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:21" ht="13.2">
       <c r="A632" s="26" t="s">
         <v>238</v>
       </c>
@@ -40017,7 +40131,7 @@
       <c r="T632" s="21"/>
       <c r="U632" s="21"/>
     </row>
-    <row r="633" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:21" ht="13.2">
       <c r="A633" s="26" t="s">
         <v>365</v>
       </c>
@@ -40068,7 +40182,7 @@
       <c r="T633" s="21"/>
       <c r="U633" s="21"/>
     </row>
-    <row r="634" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:21" ht="13.2">
       <c r="A634" s="26" t="s">
         <v>342</v>
       </c>
@@ -40119,7 +40233,7 @@
       <c r="T634" s="21"/>
       <c r="U634" s="21"/>
     </row>
-    <row r="635" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:21" ht="13.2">
       <c r="A635" s="26" t="s">
         <v>346</v>
       </c>
@@ -40170,7 +40284,7 @@
       <c r="T635" s="21"/>
       <c r="U635" s="21"/>
     </row>
-    <row r="636" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:21" ht="13.2">
       <c r="A636" s="26" t="s">
         <v>1416</v>
       </c>
@@ -40221,7 +40335,7 @@
       <c r="T636" s="21"/>
       <c r="U636" s="21"/>
     </row>
-    <row r="637" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:21" ht="13.2">
       <c r="A637" s="26" t="s">
         <v>209</v>
       </c>
@@ -40271,7 +40385,7 @@
       <c r="U637" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U637" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:U637"/>
   <conditionalFormatting sqref="G1:G637">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
